--- a/CG_SK_Lab1/CG_SK_Lab1/testdb.xlsx
+++ b/CG_SK_Lab1/CG_SK_Lab1/testdb.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="18195" windowHeight="7740"/>
@@ -14,6 +14,7 @@
   <calcPr calcId="125725"/>
   <customWorkbookViews>
     <customWorkbookView name="Network Student - Personal View" guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1244" windowHeight="535" activeSheetId="1"/>
+    <customWorkbookView name="CADET14297 - Personal View" guid="{3C987298-CACA-40B6-93C0-2D7547B95518}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="742" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -97,7 +98,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{426E6533-5782-4DBC-B391-2FE7124A19A7}" diskRevisions="1" revisionId="1960" version="14">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{43A2942E-C8D0-4746-B286-3F07C39D3C94}" diskRevisions="1" revisionId="1962" version="16">
   <header guid="{C3F7BCC8-D49B-46DD-A270-DD612B207E5B}" dateTime="2013-02-23T20:30:22" maxSheetId="4" userName="Network Student" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -196,17 +197,31 @@
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
+  <header guid="{8279E7DC-0C43-49E2-B7B3-C08215C482FC}" dateTime="2013-02-24T13:52:54" maxSheetId="4" userName="CADET14297" r:id="rId15" minRId="1961">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{43A2942E-C8D0-4746-B286-3F07C39D3C94}" dateTime="2013-02-24T13:54:35" maxSheetId="4" userName="CADET14297" r:id="rId16" minRId="1962">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1960" sId="1">
-    <oc r="D3">
+  <rcc rId="1962" sId="1">
+    <oc r="D2">
+      <v>1</v>
+    </oc>
+    <nc r="D2">
       <v>2</v>
-    </oc>
-    <nc r="D3">
-      <v>0</v>
     </nc>
   </rcc>
 </revisions>
@@ -14955,8 +14970,35 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1961" sId="1">
+    <oc r="D2">
+      <v>0</v>
+    </oc>
+    <nc r="D2">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcv guid="{3C987298-CACA-40B6-93C0-2D7547B95518}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog141.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1960" sId="1">
+    <oc r="D3">
+      <v>2</v>
+    </oc>
+    <nc r="D3">
+      <v>0</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="67">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="76">
   <userInfo guid="{960E17B9-7389-4AD0-9B19-C5BC95580E0F}" name="Network Student" id="-248555962" dateTime="2013-02-23T20:31:15"/>
   <userInfo guid="{960E17B9-7389-4AD0-9B19-C5BC95580E0F}" name="Network Student" id="-248553672" dateTime="2013-02-23T20:31:52"/>
   <userInfo guid="{960E17B9-7389-4AD0-9B19-C5BC95580E0F}" name="Network Student" id="-248552437" dateTime="2013-02-23T20:32:12"/>
@@ -15024,6 +15066,15 @@
   <userInfo guid="{FC678615-CD9C-4308-9060-3577F3EC62DA}" name="Network Student" id="-248540921" dateTime="2013-02-24T00:04:59"/>
   <userInfo guid="{C8F970C4-0F21-429D-8BE7-CF4067A125FC}" name="Network Student" id="-248537003" dateTime="2013-02-24T00:06:02"/>
   <userInfo guid="{FC678615-CD9C-4308-9060-3577F3EC62DA}" name="Network Student" id="-248536555" dateTime="2013-02-24T00:06:09"/>
+  <userInfo guid="{426E6533-5782-4DBC-B391-2FE7124A19A7}" name="CADET14297" id="-915258771" dateTime="2013-02-24T13:42:00"/>
+  <userInfo guid="{426E6533-5782-4DBC-B391-2FE7124A19A7}" name="CADET14297" id="-915254622" dateTime="2013-02-24T13:43:06"/>
+  <userInfo guid="{426E6533-5782-4DBC-B391-2FE7124A19A7}" name="CADET14297" id="-915241843" dateTime="2013-02-24T13:46:30"/>
+  <userInfo guid="{426E6533-5782-4DBC-B391-2FE7124A19A7}" name="CADET14297" id="-915241041" dateTime="2013-02-24T13:46:43"/>
+  <userInfo guid="{8279E7DC-0C43-49E2-B7B3-C08215C482FC}" name="CADET14297" id="-915217963" dateTime="2013-02-24T13:52:53"/>
+  <userInfo guid="{8279E7DC-0C43-49E2-B7B3-C08215C482FC}" name="CADET14297" id="-915217541" dateTime="2013-02-24T13:52:59"/>
+  <userInfo guid="{43A2942E-C8D0-4746-B286-3F07C39D3C94}" name="CADET14297" id="-915212314" dateTime="2013-02-24T13:54:23"/>
+  <userInfo guid="{8279E7DC-0C43-49E2-B7B3-C08215C482FC}" name="CADET14297" id="-915211565" dateTime="2013-02-24T13:54:35"/>
+  <userInfo guid="{43A2942E-C8D0-4746-B286-3F07C39D3C94}" name="CADET14297" id="-915263159" dateTime="2013-02-24T13:58:18"/>
 </users>
 </file>
 
@@ -15348,7 +15399,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -15372,6 +15423,10 @@
   <customSheetViews>
     <customSheetView guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}">
       <selection activeCell="F7" sqref="F7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{3C987298-CACA-40B6-93C0-2D7547B95518}">
+      <selection activeCell="F6" sqref="F6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -15404,6 +15459,10 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}">
+      <selection activeCell="C23" sqref="C23"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{3C987298-CACA-40B6-93C0-2D7547B95518}">
       <selection activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -15444,6 +15503,10 @@
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{3C987298-CACA-40B6-93C0-2D7547B95518}">
+      <selection activeCell="C5" sqref="C5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CG_SK_Lab1/CG_SK_Lab1/testdb.xlsx
+++ b/CG_SK_Lab1/CG_SK_Lab1/testdb.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="18195" windowHeight="7740"/>
@@ -14,7 +14,6 @@
   <calcPr calcId="125725"/>
   <customWorkbookViews>
     <customWorkbookView name="Network Student - Personal View" guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1244" windowHeight="535" activeSheetId="1"/>
-    <customWorkbookView name="CADET14297 - Personal View" guid="{3C987298-CACA-40B6-93C0-2D7547B95518}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="742" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -98,7 +97,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{43A2942E-C8D0-4746-B286-3F07C39D3C94}" diskRevisions="1" revisionId="1962" version="16">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{468FB92F-1020-4FD8-9FCD-B7E9A45A12ED}" diskRevisions="1" revisionId="1975" version="29">
   <header guid="{C3F7BCC8-D49B-46DD-A270-DD612B207E5B}" dateTime="2013-02-23T20:30:22" maxSheetId="4" userName="Network Student" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -197,14 +196,105 @@
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
-  <header guid="{8279E7DC-0C43-49E2-B7B3-C08215C482FC}" dateTime="2013-02-24T13:52:54" maxSheetId="4" userName="CADET14297" r:id="rId15" minRId="1961">
+  <header guid="{EAD3B1F5-3383-413B-AE80-12C268049D47}" dateTime="2013-02-24T14:14:09" maxSheetId="4" userName="Network Student" r:id="rId15" minRId="1961">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
-  <header guid="{43A2942E-C8D0-4746-B286-3F07C39D3C94}" dateTime="2013-02-24T13:54:35" maxSheetId="4" userName="CADET14297" r:id="rId16" minRId="1962">
+  <header guid="{DC3ECB4A-BCCB-40AB-8E22-16EBB07C0CBB}" dateTime="2013-02-24T14:15:23" maxSheetId="4" userName="Network Student" r:id="rId16" minRId="1962">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5699D126-4C10-488F-916B-A19295B4371B}" dateTime="2013-02-24T14:16:00" maxSheetId="4" userName="Network Student" r:id="rId17" minRId="1963">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1713A09D-AD50-48F0-8956-C290FC944E8C}" dateTime="2013-02-24T14:24:45" maxSheetId="4" userName="Network Student" r:id="rId18" minRId="1964">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7123CF55-51F3-475A-A213-BF61AB229FDD}" dateTime="2013-02-24T14:25:13" maxSheetId="4" userName="Network Student" r:id="rId19" minRId="1965">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E422E05A-D30B-4F80-856F-2ACDA06CBB1B}" dateTime="2013-02-24T14:28:16" maxSheetId="4" userName="Network Student" r:id="rId20" minRId="1966">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5E68624D-ABC9-4DDE-BBF3-AE97179398BB}" dateTime="2013-02-24T14:28:42" maxSheetId="4" userName="Network Student" r:id="rId21" minRId="1967">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5073E106-3E69-4B63-AE2D-70163DC4496C}" dateTime="2013-02-24T14:29:43" maxSheetId="4" userName="Network Student" r:id="rId22" minRId="1968">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{65412201-846D-4FC1-A1A4-D576494DC09E}" dateTime="2013-02-24T14:29:50" maxSheetId="4" userName="Network Student" r:id="rId23" minRId="1969">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AA9C09F1-8A85-4D0E-8566-9BE59CF37F05}" dateTime="2013-02-24T14:31:02" maxSheetId="4" userName="Network Student" r:id="rId24" minRId="1970">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E31363F3-5716-4E09-8064-589433FFAD27}" dateTime="2013-02-24T14:42:40" maxSheetId="4" userName="Network Student" r:id="rId25" minRId="1971">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3DFA9860-D68D-4F6E-86EB-E02A21C33427}" dateTime="2013-02-24T14:43:48" maxSheetId="4" userName="Network Student" r:id="rId26" minRId="1972">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{491E743D-4087-4451-BA4C-80166215C20B}" dateTime="2013-02-24T15:06:43" maxSheetId="4" userName="Network Student" r:id="rId27" minRId="1973">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B5D5BFE6-729B-4E3A-8FFF-71F7ADE245C5}" dateTime="2013-02-24T15:26:53" maxSheetId="4" userName="Network Student" r:id="rId28" minRId="1974">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{468FB92F-1020-4FD8-9FCD-B7E9A45A12ED}" dateTime="2013-02-24T15:27:28" maxSheetId="4" userName="Network Student" r:id="rId29" minRId="1975">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -216,11 +306,11 @@
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1962" sId="1">
-    <oc r="D2">
+  <rcc rId="1975" sId="1">
+    <oc r="D3">
       <v>1</v>
     </oc>
-    <nc r="D2">
+    <nc r="D3">
       <v>2</v>
     </nc>
   </rcc>
@@ -14920,12 +15010,12 @@
 
 <file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1958" sId="1">
+  <rcc rId="1964" sId="1">
     <oc r="D3">
-      <v>0</v>
+      <v>3</v>
     </oc>
     <nc r="D3">
-      <v>1</v>
+      <v>4</v>
     </nc>
   </rcc>
 </revisions>
@@ -14933,12 +15023,12 @@
 
 <file path=xl/revisions/revisionLog131.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1957" sId="1">
+  <rcc rId="1958" sId="1">
     <oc r="D3">
+      <v>0</v>
+    </oc>
+    <nc r="D3">
       <v>1</v>
-    </oc>
-    <nc r="D3">
-      <v>0</v>
     </nc>
   </rcc>
 </revisions>
@@ -14946,12 +15036,12 @@
 
 <file path=xl/revisions/revisionLog1311.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1956" sId="1">
+  <rcc rId="1957" sId="1">
     <oc r="D3">
+      <v>1</v>
+    </oc>
+    <nc r="D3">
       <v>0</v>
-    </oc>
-    <nc r="D3">
-      <v>1</v>
     </nc>
   </rcc>
 </revisions>
@@ -14959,6 +15049,19 @@
 
 <file path=xl/revisions/revisionLog13111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1956" sId="1">
+    <oc r="D3">
+      <v>0</v>
+    </oc>
+    <nc r="D3">
+      <v>1</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog131111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="1955" sId="1">
     <oc r="D3">
       <v>1</v>
@@ -14972,23 +15075,178 @@
 
 <file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1961" sId="1">
-    <oc r="D2">
-      <v>0</v>
-    </oc>
-    <nc r="D2">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcv guid="{3C987298-CACA-40B6-93C0-2D7547B95518}" action="add"/>
+  <rcc rId="1972" sId="1">
+    <oc r="D3">
+      <v>11</v>
+    </oc>
+    <nc r="D3">
+      <v>12</v>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
 <file path=xl/revisions/revisionLog141.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1967" sId="1">
+    <oc r="D3">
+      <v>6</v>
+    </oc>
+    <nc r="D3">
+      <v>7</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1411.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1963" sId="1">
+    <oc r="D3">
+      <v>2</v>
+    </oc>
+    <nc r="D3">
+      <v>3</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1962" sId="1">
+    <oc r="D3">
+      <v>1</v>
+    </oc>
+    <nc r="D3">
+      <v>2</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog141111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1961" sId="1">
+    <oc r="D3">
+      <v>0</v>
+    </oc>
+    <nc r="D3">
+      <v>1</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1411111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="1960" sId="1">
     <oc r="D3">
       <v>2</v>
+    </oc>
+    <nc r="D3">
+      <v>0</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1971" sId="1">
+    <oc r="D3">
+      <v>10</v>
+    </oc>
+    <nc r="D3">
+      <v>11</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog151.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1966" sId="1">
+    <oc r="D3">
+      <v>5</v>
+    </oc>
+    <nc r="D3">
+      <v>6</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1511.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1965" sId="1">
+    <oc r="D3">
+      <v>4</v>
+    </oc>
+    <nc r="D3">
+      <v>5</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1970" sId="1">
+    <oc r="D3">
+      <v>9</v>
+    </oc>
+    <nc r="D3">
+      <v>10</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog161.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1969" sId="1">
+    <oc r="D3">
+      <v>8</v>
+    </oc>
+    <nc r="D3">
+      <v>9</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1611.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1968" sId="1">
+    <oc r="D3">
+      <v>7</v>
+    </oc>
+    <nc r="D3">
+      <v>8</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1974" sId="1">
+    <oc r="D3">
+      <v>0</v>
+    </oc>
+    <nc r="D3">
+      <v>1</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog171.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1973" sId="1">
+    <oc r="D3">
+      <v>12</v>
     </oc>
     <nc r="D3">
       <v>0</v>
@@ -14998,7 +15256,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="76">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="129">
   <userInfo guid="{960E17B9-7389-4AD0-9B19-C5BC95580E0F}" name="Network Student" id="-248555962" dateTime="2013-02-23T20:31:15"/>
   <userInfo guid="{960E17B9-7389-4AD0-9B19-C5BC95580E0F}" name="Network Student" id="-248553672" dateTime="2013-02-23T20:31:52"/>
   <userInfo guid="{960E17B9-7389-4AD0-9B19-C5BC95580E0F}" name="Network Student" id="-248552437" dateTime="2013-02-23T20:32:12"/>
@@ -15066,15 +15324,68 @@
   <userInfo guid="{FC678615-CD9C-4308-9060-3577F3EC62DA}" name="Network Student" id="-248540921" dateTime="2013-02-24T00:04:59"/>
   <userInfo guid="{C8F970C4-0F21-429D-8BE7-CF4067A125FC}" name="Network Student" id="-248537003" dateTime="2013-02-24T00:06:02"/>
   <userInfo guid="{FC678615-CD9C-4308-9060-3577F3EC62DA}" name="Network Student" id="-248536555" dateTime="2013-02-24T00:06:09"/>
-  <userInfo guid="{426E6533-5782-4DBC-B391-2FE7124A19A7}" name="CADET14297" id="-915258771" dateTime="2013-02-24T13:42:00"/>
-  <userInfo guid="{426E6533-5782-4DBC-B391-2FE7124A19A7}" name="CADET14297" id="-915254622" dateTime="2013-02-24T13:43:06"/>
-  <userInfo guid="{426E6533-5782-4DBC-B391-2FE7124A19A7}" name="CADET14297" id="-915241843" dateTime="2013-02-24T13:46:30"/>
-  <userInfo guid="{426E6533-5782-4DBC-B391-2FE7124A19A7}" name="CADET14297" id="-915241041" dateTime="2013-02-24T13:46:43"/>
-  <userInfo guid="{8279E7DC-0C43-49E2-B7B3-C08215C482FC}" name="CADET14297" id="-915217963" dateTime="2013-02-24T13:52:53"/>
-  <userInfo guid="{8279E7DC-0C43-49E2-B7B3-C08215C482FC}" name="CADET14297" id="-915217541" dateTime="2013-02-24T13:52:59"/>
-  <userInfo guid="{43A2942E-C8D0-4746-B286-3F07C39D3C94}" name="CADET14297" id="-915212314" dateTime="2013-02-24T13:54:23"/>
-  <userInfo guid="{8279E7DC-0C43-49E2-B7B3-C08215C482FC}" name="CADET14297" id="-915211565" dateTime="2013-02-24T13:54:35"/>
-  <userInfo guid="{43A2942E-C8D0-4746-B286-3F07C39D3C94}" name="CADET14297" id="-915263159" dateTime="2013-02-24T13:58:18"/>
+  <userInfo guid="{EAD3B1F5-3383-413B-AE80-12C268049D47}" name="Network Student" id="-248567837" dateTime="2013-02-24T14:14:08"/>
+  <userInfo guid="{EAD3B1F5-3383-413B-AE80-12C268049D47}" name="Network Student" id="-248567533" dateTime="2013-02-24T14:14:13"/>
+  <userInfo guid="{EAD3B1F5-3383-413B-AE80-12C268049D47}" name="Network Student" id="-248566791" dateTime="2013-02-24T14:14:25"/>
+  <userInfo guid="{EAD3B1F5-3383-413B-AE80-12C268049D47}" name="Network Student" id="-248566301" dateTime="2013-02-24T14:14:33"/>
+  <userInfo guid="{EAD3B1F5-3383-413B-AE80-12C268049D47}" name="Network Student" id="-248566092" dateTime="2013-02-24T14:14:36"/>
+  <userInfo guid="{DC3ECB4A-BCCB-40AB-8E22-16EBB07C0CBB}" name="Network Student" id="-248565689" dateTime="2013-02-24T14:14:43"/>
+  <userInfo guid="{EAD3B1F5-3383-413B-AE80-12C268049D47}" name="Network Student" id="-248563493" dateTime="2013-02-24T14:15:18"/>
+  <userInfo guid="{EAD3B1F5-3383-413B-AE80-12C268049D47}" name="Network Student" id="-248563196" dateTime="2013-02-24T14:15:23"/>
+  <userInfo guid="{5699D126-4C10-488F-916B-A19295B4371B}" name="Network Student" id="-248561447" dateTime="2013-02-24T14:15:51"/>
+  <userInfo guid="{5699D126-4C10-488F-916B-A19295B4371B}" name="Network Student" id="-248536526" dateTime="2013-02-24T14:22:29"/>
+  <userInfo guid="{5699D126-4C10-488F-916B-A19295B4371B}" name="Network Student" id="-248535844" dateTime="2013-02-24T14:22:40"/>
+  <userInfo guid="{1713A09D-AD50-48F0-8956-C290FC944E8C}" name="Network Student" id="-248528454" dateTime="2013-02-24T14:24:39"/>
+  <userInfo guid="{5699D126-4C10-488F-916B-A19295B4371B}" name="Network Student" id="-248528105" dateTime="2013-02-24T14:24:44"/>
+  <userInfo guid="{7123CF55-51F3-475A-A213-BF61AB229FDD}" name="Network Student" id="-248527877" dateTime="2013-02-24T14:24:48"/>
+  <userInfo guid="{1713A09D-AD50-48F0-8956-C290FC944E8C}" name="Network Student" id="-248527301" dateTime="2013-02-24T14:24:57"/>
+  <userInfo guid="{1713A09D-AD50-48F0-8956-C290FC944E8C}" name="Network Student" id="-248526734" dateTime="2013-02-24T14:25:06"/>
+  <userInfo guid="{1713A09D-AD50-48F0-8956-C290FC944E8C}" name="Network Student" id="-248526405" dateTime="2013-02-24T14:25:11"/>
+  <userInfo guid="{E422E05A-D30B-4F80-856F-2ACDA06CBB1B}" name="Network Student" id="-248516084" dateTime="2013-02-24T14:27:57"/>
+  <userInfo guid="{7123CF55-51F3-475A-A213-BF61AB229FDD}" name="Network Student" id="-248515614" dateTime="2013-02-24T14:28:04"/>
+  <userInfo guid="{7123CF55-51F3-475A-A213-BF61AB229FDD}" name="Network Student" id="-248515074" dateTime="2013-02-24T14:28:13"/>
+  <userInfo guid="{7123CF55-51F3-475A-A213-BF61AB229FDD}" name="Network Student" id="-248514900" dateTime="2013-02-24T14:28:15"/>
+  <userInfo guid="{E422E05A-D30B-4F80-856F-2ACDA06CBB1B}" name="Network Student" id="-248513641" dateTime="2013-02-24T14:28:36"/>
+  <userInfo guid="{5E68624D-ABC9-4DDE-BBF3-AE97179398BB}" name="Network Student" id="-248513370" dateTime="2013-02-24T14:28:40"/>
+  <userInfo guid="{5073E106-3E69-4B63-AE2D-70163DC4496C}" name="Network Student" id="-248575649" dateTime="2013-02-24T14:29:32"/>
+  <userInfo guid="{5E68624D-ABC9-4DDE-BBF3-AE97179398BB}" name="Network Student" id="-248575008" dateTime="2013-02-24T14:29:42"/>
+  <userInfo guid="{65412201-846D-4FC1-A1A4-D576494DC09E}" name="Network Student" id="-248574753" dateTime="2013-02-24T14:29:46"/>
+  <userInfo guid="{65412201-846D-4FC1-A1A4-D576494DC09E}" name="Network Student" id="-248571109" dateTime="2013-02-24T14:30:45"/>
+  <userInfo guid="{65412201-846D-4FC1-A1A4-D576494DC09E}" name="Network Student" id="-248570915" dateTime="2013-02-24T14:30:48"/>
+  <userInfo guid="{AA9C09F1-8A85-4D0E-8566-9BE59CF37F05}" name="Network Student" id="-248570649" dateTime="2013-02-24T14:30:52"/>
+  <userInfo guid="{65412201-846D-4FC1-A1A4-D576494DC09E}" name="Network Student" id="-248570078" dateTime="2013-02-24T14:31:01"/>
+  <userInfo guid="{AA9C09F1-8A85-4D0E-8566-9BE59CF37F05}" name="Network Student" id="-248569811" dateTime="2013-02-24T14:31:05"/>
+  <userInfo guid="{AA9C09F1-8A85-4D0E-8566-9BE59CF37F05}" name="Network Student" id="-248557924" dateTime="2013-02-24T14:34:16"/>
+  <userInfo guid="{AA9C09F1-8A85-4D0E-8566-9BE59CF37F05}" name="Network Student" id="-248557375" dateTime="2013-02-24T14:34:24"/>
+  <userInfo guid="{AA9C09F1-8A85-4D0E-8566-9BE59CF37F05}" name="Network Student" id="-248557203" dateTime="2013-02-24T14:34:27"/>
+  <userInfo guid="{AA9C09F1-8A85-4D0E-8566-9BE59CF37F05}" name="Network Student" id="-248556933" dateTime="2013-02-24T14:34:32"/>
+  <userInfo guid="{AA9C09F1-8A85-4D0E-8566-9BE59CF37F05}" name="Network Student" id="-248552947" dateTime="2013-02-24T14:35:35"/>
+  <userInfo guid="{AA9C09F1-8A85-4D0E-8566-9BE59CF37F05}" name="Network Student" id="-248552578" dateTime="2013-02-24T14:35:41"/>
+  <userInfo guid="{AA9C09F1-8A85-4D0E-8566-9BE59CF37F05}" name="Network Student" id="-248551995" dateTime="2013-02-24T14:35:51"/>
+  <userInfo guid="{AA9C09F1-8A85-4D0E-8566-9BE59CF37F05}" name="Network Student" id="-248551813" dateTime="2013-02-24T14:35:53"/>
+  <userInfo guid="{AA9C09F1-8A85-4D0E-8566-9BE59CF37F05}" name="Network Student" id="-248550005" dateTime="2013-02-24T14:36:22"/>
+  <userInfo guid="{AA9C09F1-8A85-4D0E-8566-9BE59CF37F05}" name="Network Student" id="-248548662" dateTime="2013-02-24T14:36:44"/>
+  <userInfo guid="{AA9C09F1-8A85-4D0E-8566-9BE59CF37F05}" name="Network Student" id="-248529134" dateTime="2013-02-24T14:41:56"/>
+  <userInfo guid="{AA9C09F1-8A85-4D0E-8566-9BE59CF37F05}" name="Network Student" id="-248528656" dateTime="2013-02-24T14:42:04"/>
+  <userInfo guid="{AA9C09F1-8A85-4D0E-8566-9BE59CF37F05}" name="Network Student" id="-248527995" dateTime="2013-02-24T14:42:15"/>
+  <userInfo guid="{E31363F3-5716-4E09-8064-589433FFAD27}" name="Network Student" id="-248527258" dateTime="2013-02-24T14:42:26"/>
+  <userInfo guid="{AA9C09F1-8A85-4D0E-8566-9BE59CF37F05}" name="Network Student" id="-248526676" dateTime="2013-02-24T14:42:36"/>
+  <userInfo guid="{AA9C09F1-8A85-4D0E-8566-9BE59CF37F05}" name="Network Student" id="-248526413" dateTime="2013-02-24T14:42:40"/>
+  <userInfo guid="{E31363F3-5716-4E09-8064-589433FFAD27}" name="Network Student" id="-248526134" dateTime="2013-02-24T14:42:44"/>
+  <userInfo guid="{3DFA9860-D68D-4F6E-86EB-E02A21C33427}" name="Network Student" id="-248523037" dateTime="2013-02-24T14:43:34"/>
+  <userInfo guid="{E31363F3-5716-4E09-8064-589433FFAD27}" name="Network Student" id="-248522502" dateTime="2013-02-24T14:43:42"/>
+  <userInfo guid="{E31363F3-5716-4E09-8064-589433FFAD27}" name="Network Student" id="-248522148" dateTime="2013-02-24T14:43:48"/>
+  <userInfo guid="{3DFA9860-D68D-4F6E-86EB-E02A21C33427}" name="Network Student" id="-248521828" dateTime="2013-02-24T14:43:53"/>
+  <userInfo guid="{B5D5BFE6-729B-4E3A-8FFF-71F7ADE245C5}" name="Network Student" id="-248557241" dateTime="2013-02-24T15:26:52"/>
+  <userInfo guid="{B5D5BFE6-729B-4E3A-8FFF-71F7ADE245C5}" name="Network Student" id="-248556828" dateTime="2013-02-24T15:26:59"/>
+  <userInfo guid="{B5D5BFE6-729B-4E3A-8FFF-71F7ADE245C5}" name="Network Student" id="-248555775" dateTime="2013-02-24T15:27:16"/>
+  <userInfo guid="{468FB92F-1020-4FD8-9FCD-B7E9A45A12ED}" name="Network Student" id="-248555439" dateTime="2013-02-24T15:27:21"/>
+  <userInfo guid="{B5D5BFE6-729B-4E3A-8FFF-71F7ADE245C5}" name="Network Student" id="-248555014" dateTime="2013-02-24T15:27:28"/>
+  <userInfo guid="{468FB92F-1020-4FD8-9FCD-B7E9A45A12ED}" name="Network Student" id="-248551016" dateTime="2013-02-24T15:46:01"/>
+  <userInfo guid="{468FB92F-1020-4FD8-9FCD-B7E9A45A12ED}" name="Network Student" id="-248550825" dateTime="2013-02-24T15:46:04"/>
+  <userInfo guid="{468FB92F-1020-4FD8-9FCD-B7E9A45A12ED}" name="Network Student" id="-248550128" dateTime="2013-02-24T15:46:15"/>
+  <userInfo guid="{468FB92F-1020-4FD8-9FCD-B7E9A45A12ED}" name="Network Student" id="-248549866" dateTime="2013-02-24T15:46:19"/>
+  <userInfo guid="{468FB92F-1020-4FD8-9FCD-B7E9A45A12ED}" name="Network Student" id="-248549359" dateTime="2013-02-24T15:46:27"/>
 </users>
 </file>
 
@@ -15366,7 +15677,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15399,7 +15710,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -15413,7 +15724,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -15423,10 +15734,6 @@
   <customSheetViews>
     <customSheetView guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}">
       <selection activeCell="F7" sqref="F7"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{3C987298-CACA-40B6-93C0-2D7547B95518}">
-      <selection activeCell="F6" sqref="F6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -15459,10 +15766,6 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}">
-      <selection activeCell="C23" sqref="C23"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{3C987298-CACA-40B6-93C0-2D7547B95518}">
       <selection activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -15503,10 +15806,6 @@
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{3C987298-CACA-40B6-93C0-2D7547B95518}">
-      <selection activeCell="C5" sqref="C5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CG_SK_Lab1/CG_SK_Lab1/testdb.xlsx
+++ b/CG_SK_Lab1/CG_SK_Lab1/testdb.xlsx
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{468FB92F-1020-4FD8-9FCD-B7E9A45A12ED}" diskRevisions="1" revisionId="1975" version="29">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{C2EDBF80-1E79-4070-9F1B-0C93D39BC8D3}" diskRevisions="1" revisionId="1980" version="34">
   <header guid="{C3F7BCC8-D49B-46DD-A270-DD612B207E5B}" dateTime="2013-02-23T20:30:22" maxSheetId="4" userName="Network Student" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -301,17 +301,52 @@
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
+  <header guid="{1A3F2855-B66C-4F5D-BF66-2FABBED475AA}" dateTime="2013-02-24T16:26:36" maxSheetId="4" userName="Network Student" r:id="rId30" minRId="1976">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{78A90C73-84E6-4A02-94E4-89763E733A94}" dateTime="2013-02-24T16:27:34" maxSheetId="4" userName="Network Student" r:id="rId31" minRId="1977">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E1888A66-67DC-458F-9B0F-A8E19DCF511D}" dateTime="2013-02-24T16:28:12" maxSheetId="4" userName="Network Student" r:id="rId32" minRId="1978">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0EF23615-BB25-4D5F-9111-E0E9347EAC41}" dateTime="2013-02-24T16:30:01" maxSheetId="4" userName="Network Student" r:id="rId33" minRId="1979">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C2EDBF80-1E79-4070-9F1B-0C93D39BC8D3}" dateTime="2013-02-24T16:33:14" maxSheetId="4" userName="Network Student" r:id="rId34" minRId="1980">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1975" sId="1">
-    <oc r="D3">
-      <v>1</v>
-    </oc>
-    <nc r="D3">
-      <v>2</v>
+  <rcc rId="1980" sId="1">
+    <oc r="B3">
+      <v>321321</v>
+    </oc>
+    <nc r="B3">
+      <v>4321</v>
     </nc>
   </rcc>
 </revisions>
@@ -15192,12 +15227,12 @@
 
 <file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1970" sId="1">
-    <oc r="D3">
-      <v>9</v>
-    </oc>
-    <nc r="D3">
-      <v>10</v>
+  <rcc rId="1979" sId="1">
+    <oc r="B3">
+      <v>4321</v>
+    </oc>
+    <nc r="B3">
+      <v>321321</v>
     </nc>
   </rcc>
 </revisions>
@@ -15205,12 +15240,12 @@
 
 <file path=xl/revisions/revisionLog161.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1969" sId="1">
+  <rcc rId="1975" sId="1">
     <oc r="D3">
-      <v>8</v>
+      <v>1</v>
     </oc>
     <nc r="D3">
-      <v>9</v>
+      <v>2</v>
     </nc>
   </rcc>
 </revisions>
@@ -15218,6 +15253,32 @@
 
 <file path=xl/revisions/revisionLog1611.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1970" sId="1">
+    <oc r="D3">
+      <v>9</v>
+    </oc>
+    <nc r="D3">
+      <v>10</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog16111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1969" sId="1">
+    <oc r="D3">
+      <v>8</v>
+    </oc>
+    <nc r="D3">
+      <v>9</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog161111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="1968" sId="1">
     <oc r="D3">
       <v>7</v>
@@ -15231,12 +15292,12 @@
 
 <file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1974" sId="1">
-    <oc r="D3">
-      <v>0</v>
-    </oc>
-    <nc r="D3">
-      <v>1</v>
+  <rcc rId="1978" sId="1">
+    <oc r="B3">
+      <v>1234</v>
+    </oc>
+    <nc r="B3">
+      <v>4321</v>
     </nc>
   </rcc>
 </revisions>
@@ -15244,19 +15305,62 @@
 
 <file path=xl/revisions/revisionLog171.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1974" sId="1">
+    <oc r="D3">
+      <v>0</v>
+    </oc>
+    <nc r="D3">
+      <v>1</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1711.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="1973" sId="1">
     <oc r="D3">
       <v>12</v>
     </oc>
     <nc r="D3">
       <v>0</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1977" sId="1">
+    <oc r="B3" t="inlineStr">
+      <is>
+        <t>Verify New Pin:</t>
+      </is>
+    </oc>
+    <nc r="B3">
+      <v>1234</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog181.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1976" sId="1">
+    <oc r="B3">
+      <v>4321</v>
+    </oc>
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>Verify New Pin:</t>
+      </is>
     </nc>
   </rcc>
 </revisions>
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="129">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="163">
   <userInfo guid="{960E17B9-7389-4AD0-9B19-C5BC95580E0F}" name="Network Student" id="-248555962" dateTime="2013-02-23T20:31:15"/>
   <userInfo guid="{960E17B9-7389-4AD0-9B19-C5BC95580E0F}" name="Network Student" id="-248553672" dateTime="2013-02-23T20:31:52"/>
   <userInfo guid="{960E17B9-7389-4AD0-9B19-C5BC95580E0F}" name="Network Student" id="-248552437" dateTime="2013-02-23T20:32:12"/>
@@ -15386,6 +15490,40 @@
   <userInfo guid="{468FB92F-1020-4FD8-9FCD-B7E9A45A12ED}" name="Network Student" id="-248550128" dateTime="2013-02-24T15:46:15"/>
   <userInfo guid="{468FB92F-1020-4FD8-9FCD-B7E9A45A12ED}" name="Network Student" id="-248549866" dateTime="2013-02-24T15:46:19"/>
   <userInfo guid="{468FB92F-1020-4FD8-9FCD-B7E9A45A12ED}" name="Network Student" id="-248549359" dateTime="2013-02-24T15:46:27"/>
+  <userInfo guid="{468FB92F-1020-4FD8-9FCD-B7E9A45A12ED}" name="Network Student" id="-248531832" dateTime="2013-02-24T16:26:05"/>
+  <userInfo guid="{468FB92F-1020-4FD8-9FCD-B7E9A45A12ED}" name="Network Student" id="-248531319" dateTime="2013-02-24T16:26:13"/>
+  <userInfo guid="{468FB92F-1020-4FD8-9FCD-B7E9A45A12ED}" name="Network Student" id="-248530465" dateTime="2013-02-24T16:26:26"/>
+  <userInfo guid="{1A3F2855-B66C-4F5D-BF66-2FABBED475AA}" name="Network Student" id="-248529905" dateTime="2013-02-24T16:26:35"/>
+  <userInfo guid="{1A3F2855-B66C-4F5D-BF66-2FABBED475AA}" name="Network Student" id="-248529008" dateTime="2013-02-24T16:26:50"/>
+  <userInfo guid="{1A3F2855-B66C-4F5D-BF66-2FABBED475AA}" name="Network Student" id="-248528793" dateTime="2013-02-24T16:26:53"/>
+  <userInfo guid="{1A3F2855-B66C-4F5D-BF66-2FABBED475AA}" name="Network Student" id="-248528503" dateTime="2013-02-24T16:26:58"/>
+  <userInfo guid="{1A3F2855-B66C-4F5D-BF66-2FABBED475AA}" name="Network Student" id="-248528298" dateTime="2013-02-24T16:27:01"/>
+  <userInfo guid="{78A90C73-84E6-4A02-94E4-89763E733A94}" name="Network Student" id="-248525303" dateTime="2013-02-24T16:27:49"/>
+  <userInfo guid="{78A90C73-84E6-4A02-94E4-89763E733A94}" name="Network Student" id="-248524704" dateTime="2013-02-24T16:27:59"/>
+  <userInfo guid="{78A90C73-84E6-4A02-94E4-89763E733A94}" name="Network Student" id="-248524132" dateTime="2013-02-24T16:28:08"/>
+  <userInfo guid="{E1888A66-67DC-458F-9B0F-A8E19DCF511D}" name="Network Student" id="-248523633" dateTime="2013-02-24T16:28:16"/>
+  <userInfo guid="{E1888A66-67DC-458F-9B0F-A8E19DCF511D}" name="Network Student" id="-248519292" dateTime="2013-02-24T16:29:25"/>
+  <userInfo guid="{E1888A66-67DC-458F-9B0F-A8E19DCF511D}" name="Network Student" id="-248519162" dateTime="2013-02-24T16:29:27"/>
+  <userInfo guid="{E1888A66-67DC-458F-9B0F-A8E19DCF511D}" name="Network Student" id="-248518853" dateTime="2013-02-24T16:29:32"/>
+  <userInfo guid="{E1888A66-67DC-458F-9B0F-A8E19DCF511D}" name="Network Student" id="-248518599" dateTime="2013-02-24T16:29:36"/>
+  <userInfo guid="{0EF23615-BB25-4D5F-9111-E0E9347EAC41}" name="Network Student" id="-248517095" dateTime="2013-02-24T16:30:00"/>
+  <userInfo guid="{0EF23615-BB25-4D5F-9111-E0E9347EAC41}" name="Network Student" id="-248516229" dateTime="2013-02-24T16:30:14"/>
+  <userInfo guid="{0EF23615-BB25-4D5F-9111-E0E9347EAC41}" name="Network Student" id="-248573180" dateTime="2013-02-24T16:32:32"/>
+  <userInfo guid="{0EF23615-BB25-4D5F-9111-E0E9347EAC41}" name="Network Student" id="-248572831" dateTime="2013-02-24T16:32:37"/>
+  <userInfo guid="{0EF23615-BB25-4D5F-9111-E0E9347EAC41}" name="Network Student" id="-248572542" dateTime="2013-02-24T16:32:42"/>
+  <userInfo guid="{0EF23615-BB25-4D5F-9111-E0E9347EAC41}" name="Network Student" id="-248572329" dateTime="2013-02-24T16:32:45"/>
+  <userInfo guid="{C2EDBF80-1E79-4070-9F1B-0C93D39BC8D3}" name="Network Student" id="-248570527" dateTime="2013-02-24T16:33:14"/>
+  <userInfo guid="{C2EDBF80-1E79-4070-9F1B-0C93D39BC8D3}" name="Network Student" id="-248519177" dateTime="2013-02-24T16:46:56"/>
+  <userInfo guid="{C2EDBF80-1E79-4070-9F1B-0C93D39BC8D3}" name="Network Student" id="-248518543" dateTime="2013-02-24T16:47:06"/>
+  <userInfo guid="{C2EDBF80-1E79-4070-9F1B-0C93D39BC8D3}" name="Network Student" id="-248564235" dateTime="2013-02-24T16:52:23"/>
+  <userInfo guid="{C2EDBF80-1E79-4070-9F1B-0C93D39BC8D3}" name="Network Student" id="-248563408" dateTime="2013-02-24T16:52:37"/>
+  <userInfo guid="{C2EDBF80-1E79-4070-9F1B-0C93D39BC8D3}" name="Network Student" id="-248562799" dateTime="2013-02-24T16:52:46"/>
+  <userInfo guid="{C2EDBF80-1E79-4070-9F1B-0C93D39BC8D3}" name="Network Student" id="-248562662" dateTime="2013-02-24T16:52:48"/>
+  <userInfo guid="{C2EDBF80-1E79-4070-9F1B-0C93D39BC8D3}" name="Network Student" id="-248561759" dateTime="2013-02-24T16:53:03"/>
+  <userInfo guid="{C2EDBF80-1E79-4070-9F1B-0C93D39BC8D3}" name="Network Student" id="-248561452" dateTime="2013-02-24T16:53:08"/>
+  <userInfo guid="{C2EDBF80-1E79-4070-9F1B-0C93D39BC8D3}" name="Network Student" id="-248561229" dateTime="2013-02-24T16:53:11"/>
+  <userInfo guid="{C2EDBF80-1E79-4070-9F1B-0C93D39BC8D3}" name="Network Student" id="-248559218" dateTime="2013-02-24T16:53:44"/>
+  <userInfo guid="{C2EDBF80-1E79-4070-9F1B-0C93D39BC8D3}" name="Network Student" id="-248557767" dateTime="2013-02-24T16:54:07"/>
 </users>
 </file>
 

--- a/CG_SK_Lab1/CG_SK_Lab1/testdb.xlsx
+++ b/CG_SK_Lab1/CG_SK_Lab1/testdb.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="18195" windowHeight="7740" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="18195" windowHeight="7740" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,17 @@
     <sheet name="Admin" sheetId="3" r:id="rId3"/>
     <sheet name="Excusals" sheetId="4" r:id="rId4"/>
     <sheet name="Multiples" sheetId="5" r:id="rId5"/>
+    <sheet name="Totals" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
-    <customWorkbookView name="Network Student - Personal View" guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1244" windowHeight="535" activeSheetId="2"/>
+    <customWorkbookView name="Network Student - Personal View" guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1056" windowHeight="611" activeSheetId="6"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -57,9 +58,6 @@
   </si>
   <si>
     <t>Day</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Boone</t>
@@ -106,11 +104,38 @@
   <si>
     <t>Rick</t>
   </si>
+  <si>
+    <t>excelform</t>
+  </si>
+  <si>
+    <t>searchdates</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>dinner</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -140,12 +165,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,7 +182,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{E5C4F369-6892-464A-B28C-C6850A2EEA0B}" diskRevisions="1" revisionId="2036" version="34">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{C6665679-3880-4A45-8873-233DB3F209C9}" diskRevisions="1" revisionId="2103" version="42">
   <header guid="{C3F7BCC8-D49B-46DD-A270-DD612B207E5B}" dateTime="2013-02-23T20:30:22" maxSheetId="4" userName="Network Student" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -404,11 +430,297 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
+  <header guid="{C92DE897-D628-4CAB-BEE9-D110FA6F2377}" dateTime="2013-02-26T11:37:28" maxSheetId="6" userName="Network Student" r:id="rId35" minRId="2037" maxRId="2038">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E9907A22-EECE-4895-8B4B-0239EF51F778}" dateTime="2013-02-26T11:39:40" maxSheetId="6" userName="Network Student" r:id="rId36" minRId="2039">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0F83B45F-429F-4A8E-9F4F-F0BE18219984}" dateTime="2013-02-26T11:48:43" maxSheetId="6" userName="Network Student" r:id="rId37">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B9456002-EB5A-4AA9-9B9B-8BBD9DE9C086}" dateTime="2013-02-26T11:49:45" maxSheetId="6" userName="Network Student" r:id="rId38" minRId="2040" maxRId="2051">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3700D08E-C33B-445F-85E5-CEFB92501D2A}" dateTime="2013-02-27T13:08:34" maxSheetId="6" userName="Network Student" r:id="rId39">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4B729ADE-4D8F-42B0-8286-37E458A51C3C}" dateTime="2013-02-27T13:13:11" maxSheetId="6" userName="Network Student" r:id="rId40" minRId="2052" maxRId="2067">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" dateTime="2013-02-27T13:18:52" maxSheetId="6" userName="Network Student" r:id="rId41">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C6665679-3880-4A45-8873-233DB3F209C9}" dateTime="2013-02-27T14:14:59" maxSheetId="7" userName="Network Student" r:id="rId42" minRId="2068" maxRId="2103">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <ris rId="2068" sheetId="6" name="[testdb.xlsx]Totals" sheetPosition="5"/>
+  <rcc rId="2069" sId="6">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Meal</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2070" sId="6">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>Date</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2071" sId="6">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>Attendance</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="2072" sId="6" eol="1" ref="A2:XFD2" action="insertRow"/>
+  <rcc rId="2073" sId="6">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="2074" sId="6" eol="1" ref="A3:XFD3" action="insertRow"/>
+  <rcc rId="2075" sId="6">
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="2076" sId="6" eol="1" ref="A4:XFD4" action="insertRow"/>
+  <rrc rId="2077" sId="6" eol="1" ref="A5:XFD5" action="insertRow"/>
+  <rcc rId="2078" sId="6">
+    <nc r="A5" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="2079" sId="6" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rcc rId="2080" sId="6">
+    <nc r="A6" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2081" sId="6">
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="2082" sId="6" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rcc rId="2083" sId="6">
+    <nc r="A7" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="2084" sId="6" eol="1" ref="A8:XFD8" action="insertRow"/>
+  <rcc rId="2085" sId="6">
+    <nc r="A8" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="2086" sId="6" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rcc rId="2087" sId="6">
+    <nc r="A9" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2088" sId="6" odxf="1" dxf="1" numFmtId="19">
+    <nc r="B2">
+      <v>41328</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="6" sqref="B3" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="2089" sId="6" numFmtId="19">
+    <nc r="B3">
+      <v>41328</v>
+    </nc>
+  </rcc>
+  <rcc rId="2090" sId="6" odxf="1" dxf="1" numFmtId="19">
+    <nc r="B4">
+      <v>41328</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2091" sId="6" odxf="1" dxf="1" numFmtId="19">
+    <nc r="B5">
+      <v>41329</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2092" sId="6" odxf="1" dxf="1" numFmtId="19">
+    <nc r="B6">
+      <v>41329</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2093" sId="6" odxf="1" dxf="1" numFmtId="19">
+    <nc r="B7">
+      <v>41326</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2094" sId="6" odxf="1" dxf="1" numFmtId="19">
+    <nc r="B8">
+      <v>41326</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2095" sId="6" odxf="1" dxf="1" numFmtId="19">
+    <nc r="B9">
+      <v>41326</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2096" sId="6">
+    <nc r="C2">
+      <v>564</v>
+    </nc>
+  </rcc>
+  <rcc rId="2097" sId="6">
+    <nc r="C3">
+      <v>7654</v>
+    </nc>
+  </rcc>
+  <rcc rId="2098" sId="6">
+    <nc r="C4">
+      <v>786</v>
+    </nc>
+  </rcc>
+  <rcc rId="2099" sId="6">
+    <nc r="C5">
+      <v>233</v>
+    </nc>
+  </rcc>
+  <rcc rId="2100" sId="6">
+    <nc r="C7">
+      <v>6354</v>
+    </nc>
+  </rcc>
+  <rcc rId="2101" sId="6">
+    <nc r="C6">
+      <v>236</v>
+    </nc>
+  </rcc>
+  <rcc rId="2102" sId="6">
+    <nc r="C8">
+      <v>754</v>
+    </nc>
+  </rcc>
+  <rcc rId="2103" sId="6">
+    <nc r="C9">
+      <v>3475</v>
+    </nc>
+  </rcc>
   <rcv guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}" action="delete"/>
   <rcv guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}" action="add"/>
 </revisions>
@@ -15250,31 +15562,48 @@
 
 <file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1971" sId="1">
-    <oc r="D3">
-      <v>10</v>
-    </oc>
-    <nc r="D3">
-      <v>11</v>
-    </nc>
-  </rcc>
+  <rfmt sheetId="2" sqref="B6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </rfmt>
 </revisions>
 </file>
 
 <file path=xl/revisions/revisionLog151.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1966" sId="1">
-    <oc r="D3">
-      <v>5</v>
-    </oc>
-    <nc r="D3">
-      <v>6</v>
-    </nc>
-  </rcc>
+  <rcv guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}" action="delete"/>
+  <rcv guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}" action="add"/>
 </revisions>
 </file>
 
 <file path=xl/revisions/revisionLog1511.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1971" sId="1">
+    <oc r="D3">
+      <v>10</v>
+    </oc>
+    <nc r="D3">
+      <v>11</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog15111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1966" sId="1">
+    <oc r="D3">
+      <v>5</v>
+    </oc>
+    <nc r="D3">
+      <v>6</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog151111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="1965" sId="1">
     <oc r="D3">
@@ -15584,6 +15913,107 @@
 
 <file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="2040" sId="2" numFmtId="19">
+    <oc r="B3">
+      <v>41331.773611111108</v>
+    </oc>
+    <nc r="B3">
+      <v>41331</v>
+    </nc>
+  </rcc>
+  <rcc rId="2041" sId="2" numFmtId="19">
+    <oc r="B4">
+      <v>41331.768055555556</v>
+    </oc>
+    <nc r="B4">
+      <v>41331</v>
+    </nc>
+  </rcc>
+  <rcc rId="2042" sId="2" numFmtId="19">
+    <oc r="B5">
+      <v>41331.723611111112</v>
+    </oc>
+    <nc r="B5">
+      <v>41331</v>
+    </nc>
+  </rcc>
+  <rcc rId="2043" sId="2" numFmtId="19">
+    <oc r="B6">
+      <v>41329.481944444444</v>
+    </oc>
+    <nc r="B6">
+      <v>41329</v>
+    </nc>
+  </rcc>
+  <rcc rId="2044" sId="2" numFmtId="19">
+    <oc r="B7">
+      <v>41329.300694444442</v>
+    </oc>
+    <nc r="B7">
+      <v>41329</v>
+    </nc>
+  </rcc>
+  <rcc rId="2045" sId="2" numFmtId="19">
+    <oc r="B8">
+      <v>41328.78125</v>
+    </oc>
+    <nc r="B8">
+      <v>41328</v>
+    </nc>
+  </rcc>
+  <rcc rId="2046" sId="2" numFmtId="19">
+    <oc r="B9">
+      <v>41328.731944444444</v>
+    </oc>
+    <nc r="B9">
+      <v>41328</v>
+    </nc>
+  </rcc>
+  <rcc rId="2047" sId="2" numFmtId="19">
+    <oc r="B10">
+      <v>41328.732638888891</v>
+    </oc>
+    <nc r="B10">
+      <v>41328</v>
+    </nc>
+  </rcc>
+  <rcc rId="2048" sId="2" numFmtId="19">
+    <oc r="B11">
+      <v>41328.495138888888</v>
+    </oc>
+    <nc r="B11">
+      <v>41328</v>
+    </nc>
+  </rcc>
+  <rcc rId="2049" sId="2" numFmtId="19">
+    <oc r="B12">
+      <v>41328.490277777775</v>
+    </oc>
+    <nc r="B12">
+      <v>41328</v>
+    </nc>
+  </rcc>
+  <rcc rId="2050" sId="2" numFmtId="19">
+    <oc r="B13">
+      <v>41328.351388888892</v>
+    </oc>
+    <nc r="B13">
+      <v>41328</v>
+    </nc>
+  </rcc>
+  <rcc rId="2051" sId="2" numFmtId="19">
+    <oc r="B14">
+      <v>41328.303472222222</v>
+    </oc>
+    <nc r="B14">
+      <v>41328</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog171.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="1994" sId="5">
     <oc r="B1" t="inlineStr">
       <is>
@@ -15623,7 +16053,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog171.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog1711.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="1974" sId="1">
     <oc r="D3">
@@ -15636,7 +16066,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog1711.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog17111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rcc rId="1973" sId="1">
     <oc r="D3">
@@ -15650,6 +16080,39 @@
 </file>
 
 <file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rfmt sheetId="2" sqref="F2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog181.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rfmt sheetId="2" sqref="B1:B1048576">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1811.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="2039" sId="2" numFmtId="27">
+    <oc r="B2">
+      <v>41331.788888888892</v>
+    </oc>
+    <nc r="B2">
+      <v>41331</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <ris rId="1986" sheetId="5" name="[testdb.xlsx]Multiples" sheetPosition="4"/>
   <rcc rId="1987" sId="5">
@@ -15708,7 +16171,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog181.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog181111.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <ris rId="1976" sheetId="4" name="[testdb.xlsx]Excusals" sheetPosition="3"/>
   <rcc rId="1977" sId="4">
@@ -15773,8 +16236,226 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rfmt sheetId="2" sqref="B6">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="2052" sId="2" odxf="1" dxf="1" numFmtId="19">
+    <nc r="C2">
+      <v>41331</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2053" sId="2" odxf="1" dxf="1" numFmtId="19">
+    <nc r="C3">
+      <v>41331</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2054" sId="2" odxf="1" dxf="1" numFmtId="19">
+    <nc r="C4">
+      <v>41331</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2055" sId="2" odxf="1" dxf="1" numFmtId="19">
+    <nc r="C5">
+      <v>41331</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2056" sId="2" odxf="1" dxf="1" numFmtId="19">
+    <nc r="C6">
+      <v>41329</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2057" sId="2" odxf="1" dxf="1" numFmtId="19">
+    <nc r="C7">
+      <v>41329</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2058" sId="2" odxf="1" dxf="1" numFmtId="19">
+    <nc r="C8">
+      <v>41328</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2059" sId="2" odxf="1" dxf="1" numFmtId="19">
+    <nc r="C9">
+      <v>41328</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2060" sId="2" odxf="1" dxf="1" numFmtId="19">
+    <nc r="C10">
+      <v>41328</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2061" sId="2" odxf="1" dxf="1" numFmtId="19">
+    <nc r="C11">
+      <v>41328</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2062" sId="2" odxf="1" dxf="1" numFmtId="19">
+    <nc r="C12">
+      <v>41328</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2063" sId="2" odxf="1" dxf="1" numFmtId="19">
+    <nc r="C13">
+      <v>41328</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="2064" sId="2" odxf="1" dxf="1" numFmtId="19">
+    <nc r="C14">
+      <v>41328</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="2" sqref="C2:C14">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="2065" sId="2">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>excelform</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2066" sId="2">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>searchdates</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="F2" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="2067" sId="2" numFmtId="19">
+    <nc r="F2">
+      <v>41287</v>
+    </nc>
+  </rcc>
+  <rcv guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}" action="delete"/>
+  <rcv guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog191.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="2037" sId="4">
+    <oc r="D1" t="inlineStr">
+      <is>
+        <t>Time</t>
+      </is>
+    </oc>
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>TimeStamp</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2038" sId="5">
+    <oc r="B1" t="inlineStr">
+      <is>
+        <t>Time</t>
+      </is>
+    </oc>
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>TimeStamp</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="B1:B1048576">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="135">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="183">
   <userInfo guid="{960E17B9-7389-4AD0-9B19-C5BC95580E0F}" name="Network Student" id="-248555962" dateTime="2013-02-23T20:31:15"/>
   <userInfo guid="{960E17B9-7389-4AD0-9B19-C5BC95580E0F}" name="Network Student" id="-248553672" dateTime="2013-02-23T20:31:52"/>
   <userInfo guid="{960E17B9-7389-4AD0-9B19-C5BC95580E0F}" name="Network Student" id="-248552437" dateTime="2013-02-23T20:32:12"/>
@@ -15910,6 +16591,54 @@
   <userInfo guid="{D0F57A8F-829C-43CA-B3F1-02F6A915E219}" name="Network Student" id="-248559982" dateTime="2013-02-26T09:55:33"/>
   <userInfo guid="{9753A084-1117-4763-A2A3-AF4FCB1F83D5}" name="Network Student" id="-248576189" dateTime="2013-02-26T10:08:42"/>
   <userInfo guid="{9753A084-1117-4763-A2A3-AF4FCB1F83D5}" name="Network Student" id="-248572137" dateTime="2013-02-26T10:09:47"/>
+  <userInfo guid="{E5C4F369-6892-464A-B28C-C6850A2EEA0B}" name="Network Student" id="-248536770" dateTime="2013-02-26T10:19:13"/>
+  <userInfo guid="{E5C4F369-6892-464A-B28C-C6850A2EEA0B}" name="Network Student" id="-248524661" dateTime="2013-02-26T10:22:27"/>
+  <userInfo guid="{E5C4F369-6892-464A-B28C-C6850A2EEA0B}" name="Network Student" id="-248520844" dateTime="2013-02-26T10:23:28"/>
+  <userInfo guid="{E5C4F369-6892-464A-B28C-C6850A2EEA0B}" name="Network Student" id="-248516326" dateTime="2013-02-26T10:24:40"/>
+  <userInfo guid="{E5C4F369-6892-464A-B28C-C6850A2EEA0B}" name="Network Student" id="-248514214" dateTime="2013-02-26T10:25:14"/>
+  <userInfo guid="{E5C4F369-6892-464A-B28C-C6850A2EEA0B}" name="Network Student" id="-248577448" dateTime="2013-02-26T10:25:51"/>
+  <userInfo guid="{E5C4F369-6892-464A-B28C-C6850A2EEA0B}" name="Network Student" id="-248558681" dateTime="2013-02-26T10:30:51"/>
+  <userInfo guid="{E5C4F369-6892-464A-B28C-C6850A2EEA0B}" name="Network Student" id="-248549766" dateTime="2013-02-26T10:33:14"/>
+  <userInfo guid="{E5C4F369-6892-464A-B28C-C6850A2EEA0B}" name="Network Student" id="-248574595" dateTime="2013-02-26T10:44:05"/>
+  <userInfo guid="{E5C4F369-6892-464A-B28C-C6850A2EEA0B}" name="Network Student" id="-248568323" dateTime="2013-02-26T10:45:45"/>
+  <userInfo guid="{E5C4F369-6892-464A-B28C-C6850A2EEA0B}" name="Network Student" id="-248562440" dateTime="2013-02-26T10:47:19"/>
+  <userInfo guid="{E5C4F369-6892-464A-B28C-C6850A2EEA0B}" name="Network Student" id="-248551722" dateTime="2013-02-26T10:50:11"/>
+  <userInfo guid="{E5C4F369-6892-464A-B28C-C6850A2EEA0B}" name="Network Student" id="-248523672" dateTime="2013-02-26T11:32:37"/>
+  <userInfo guid="{E5C4F369-6892-464A-B28C-C6850A2EEA0B}" name="Network Student" id="-248577849" dateTime="2013-02-26T11:35:39"/>
+  <userInfo guid="{C92DE897-D628-4CAB-BEE9-D110FA6F2377}" name="Network Student" id="-248570017" dateTime="2013-02-26T11:37:44"/>
+  <userInfo guid="{E9907A22-EECE-4895-8B4B-0239EF51F778}" name="Network Student" id="-248562198" dateTime="2013-02-26T11:39:49"/>
+  <userInfo guid="{E9907A22-EECE-4895-8B4B-0239EF51F778}" name="Network Student" id="-248548523" dateTime="2013-02-26T11:43:28"/>
+  <userInfo guid="{E9907A22-EECE-4895-8B4B-0239EF51F778}" name="Network Student" id="-248533466" dateTime="2013-02-26T11:47:29"/>
+  <userInfo guid="{E9907A22-EECE-4895-8B4B-0239EF51F778}" name="Network Student" id="-248529746" dateTime="2013-02-26T11:48:28"/>
+  <userInfo guid="{0F83B45F-429F-4A8E-9F4F-F0BE18219984}" name="Network Student" id="-248527976" dateTime="2013-02-26T11:48:57"/>
+  <userInfo guid="{B9456002-EB5A-4AA9-9B9B-8BBD9DE9C086}" name="Network Student" id="-248524286" dateTime="2013-02-26T11:49:56"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248541279" dateTime="2013-02-27T13:25:26"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248535599" dateTime="2013-02-27T13:26:57"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248533163" dateTime="2013-02-27T13:27:36"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248525015" dateTime="2013-02-27T13:29:46"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248523972" dateTime="2013-02-27T13:30:03"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248521944" dateTime="2013-02-27T13:30:35"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248520994" dateTime="2013-02-27T13:30:51"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248519245" dateTime="2013-02-27T13:31:19"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248517958" dateTime="2013-02-27T13:31:39"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248575926" dateTime="2013-02-27T13:33:40"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248575294" dateTime="2013-02-27T13:33:50"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248567885" dateTime="2013-02-27T13:35:49"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248567087" dateTime="2013-02-27T13:36:02"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248561886" dateTime="2013-02-27T13:37:25"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248561261" dateTime="2013-02-27T13:37:35"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248558796" dateTime="2013-02-27T13:38:14"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248557870" dateTime="2013-02-27T13:38:29"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248547449" dateTime="2013-02-27T13:41:16"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248546430" dateTime="2013-02-27T13:41:32"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248545872" dateTime="2013-02-27T13:41:41"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248548650" dateTime="2013-02-27T14:03:40"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248547007" dateTime="2013-02-27T14:04:06"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248543293" dateTime="2013-02-27T14:05:05"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248542525" dateTime="2013-02-27T14:05:18"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248541926" dateTime="2013-02-27T14:05:27"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248526105" dateTime="2013-02-27T14:09:40"/>
+  <userInfo guid="{7500F879-A4EA-4C3D-AEAD-863D11CB6EB5}" name="Network Student" id="-248525914" dateTime="2013-02-27T14:09:43"/>
 </users>
 </file>
 
@@ -16267,134 +16996,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4">
+        <v>41331</v>
+      </c>
+      <c r="C2" s="5">
+        <v>41331</v>
+      </c>
+      <c r="F2" s="5">
+        <v>41287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4">
-        <v>41331.788888888892</v>
+      <c r="B3" s="4">
+        <v>41331</v>
+      </c>
+      <c r="C3" s="5">
+        <v>41331</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4">
-        <v>41331.773611111108</v>
+      <c r="B4" s="4">
+        <v>41331</v>
+      </c>
+      <c r="C4" s="5">
+        <v>41331</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4">
-        <v>41331.768055555556</v>
+      <c r="B5" s="4">
+        <v>41331</v>
+      </c>
+      <c r="C5" s="5">
+        <v>41331</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4">
-        <v>41331.723611111112</v>
+      <c r="B6" s="2">
+        <v>41329</v>
+      </c>
+      <c r="C6" s="5">
+        <v>41329</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4">
-        <v>41329.481944444444</v>
+      <c r="B7" s="4">
+        <v>41329</v>
+      </c>
+      <c r="C7" s="5">
+        <v>41329</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4">
-        <v>41329.300694444442</v>
+      <c r="B8" s="4">
+        <v>41328</v>
+      </c>
+      <c r="C8" s="5">
+        <v>41328</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4">
-        <v>41328.78125</v>
+      <c r="B9" s="4">
+        <v>41328</v>
+      </c>
+      <c r="C9" s="5">
+        <v>41328</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4">
-        <v>41328.731944444444</v>
+      <c r="B10" s="4">
+        <v>41328</v>
+      </c>
+      <c r="C10" s="5">
+        <v>41328</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4">
-        <v>41328.732638888891</v>
+      <c r="B11" s="4">
+        <v>41328</v>
+      </c>
+      <c r="C11" s="5">
+        <v>41328</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>27</v>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>17</v>
       </c>
-      <c r="B11" s="4">
-        <v>41328.495138888888</v>
+      <c r="B12" s="4">
+        <v>41328</v>
+      </c>
+      <c r="C12" s="5">
+        <v>41328</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>18</v>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>23</v>
       </c>
-      <c r="B12" s="4">
-        <v>41328.490277777775</v>
+      <c r="B13" s="4">
+        <v>41328</v>
+      </c>
+      <c r="C13" s="5">
+        <v>41328</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4">
-        <v>41328.351388888892</v>
+      <c r="B14" s="4">
+        <v>41328</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="4">
-        <v>41328.303472222222</v>
+      <c r="C14" s="5">
+        <v>41328</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M5" sqref="M5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -16466,21 +17244,21 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -16499,7 +17277,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16514,12 +17292,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>38751.524259259262</v>
@@ -16529,7 +17307,134 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C11" sqref="C11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2">
+        <v>41328</v>
+      </c>
+      <c r="C2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2">
+        <v>41328</v>
+      </c>
+      <c r="C3">
+        <v>7654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2">
+        <v>41328</v>
+      </c>
+      <c r="C4">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2">
+        <v>41329</v>
+      </c>
+      <c r="C5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2">
+        <v>41329</v>
+      </c>
+      <c r="C6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2">
+        <v>41326</v>
+      </c>
+      <c r="C7">
+        <v>6354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2">
+        <v>41326</v>
+      </c>
+      <c r="C8">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2">
+        <v>41326</v>
+      </c>
+      <c r="C9">
+        <v>3475</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}">
+      <selection activeCell="C10" sqref="C10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/CG_SK_Lab1/CG_SK_Lab1/testdb.xlsx
+++ b/CG_SK_Lab1/CG_SK_Lab1/testdb.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="18195" windowHeight="7740" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="18195" windowHeight="7740" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>Friday</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Number of Multiples</t>
+  </si>
+  <si>
+    <t>excusal</t>
   </si>
 </sst>
 </file>
@@ -201,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -209,6 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,10 +925,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -926,24 +936,58 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>38751.524259259262</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>38751</v>
+      </c>
+      <c r="E2" s="5">
+        <f>MATCH("*",A2:A3,-1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>41333</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="4">
+        <v>41333</v>
+      </c>
     </row>
   </sheetData>
   <customSheetViews>
@@ -960,7 +1004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/CG_SK_Lab1/CG_SK_Lab1/testdb.xlsx
+++ b/CG_SK_Lab1/CG_SK_Lab1/testdb.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="18195" windowHeight="7740" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="18195" windowHeight="7740" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -160,15 +160,6 @@
   </si>
   <si>
     <t>Friday</t>
-  </si>
-  <si>
-    <t>Reason</t>
-  </si>
-  <si>
-    <t>Number of Multiples</t>
-  </si>
-  <si>
-    <t>excusal</t>
   </si>
 </sst>
 </file>
@@ -210,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -218,7 +209,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,10 +915,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -936,58 +926,24 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>38751.524259259262</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>38751</v>
-      </c>
-      <c r="E2" s="5">
-        <f>MATCH("*",A2:A3,-1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>41333</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="4">
-        <v>41333</v>
-      </c>
+      <c r="C2" s="3"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -1004,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1036,7 +992,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2">
         <v>41302</v>
@@ -1053,7 +1009,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2">
         <v>41302</v>
@@ -1070,24 +1026,24 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2">
-        <v>41303</v>
+        <v>41302</v>
       </c>
       <c r="C4">
         <v>564</v>
       </c>
       <c r="D4">
-        <v>41303</v>
+        <v>41302</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2">
         <v>41303</v>
@@ -1104,7 +1060,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2">
         <v>41303</v>
@@ -1121,24 +1077,24 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2">
-        <v>41304</v>
+        <v>41303</v>
       </c>
       <c r="C7">
         <v>564</v>
       </c>
       <c r="D7">
-        <v>41304</v>
+        <v>41303</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2">
         <v>41304</v>
@@ -1155,7 +1111,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2">
         <v>41304</v>
@@ -1172,24 +1128,24 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2">
-        <v>41305</v>
+        <v>41304</v>
       </c>
       <c r="C10">
         <v>564</v>
       </c>
       <c r="D10">
-        <v>41305</v>
+        <v>41304</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2">
         <v>41305</v>
@@ -1206,7 +1162,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2">
         <v>41305</v>
@@ -1223,24 +1179,24 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2">
-        <v>41306</v>
+        <v>41305</v>
       </c>
       <c r="C13">
         <v>564</v>
       </c>
       <c r="D13">
-        <v>41306</v>
+        <v>41305</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2">
         <v>41306</v>
@@ -1257,7 +1213,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2">
         <v>41306</v>
@@ -1274,24 +1230,24 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2">
-        <v>41307</v>
+        <v>41306</v>
       </c>
       <c r="C16">
         <v>564</v>
       </c>
       <c r="D16">
-        <v>41307</v>
+        <v>41306</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
         <v>41307</v>
@@ -1308,7 +1264,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
         <v>41307</v>
@@ -1325,24 +1281,24 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2">
-        <v>41308</v>
+        <v>41307</v>
       </c>
       <c r="C19">
         <v>564</v>
       </c>
       <c r="D19">
-        <v>41308</v>
+        <v>41307</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2">
         <v>41308</v>
@@ -1359,7 +1315,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2">
         <v>41308</v>
@@ -1376,24 +1332,24 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2">
-        <v>41309</v>
+        <v>41308</v>
       </c>
       <c r="C22">
         <v>564</v>
       </c>
       <c r="D22">
-        <v>41309</v>
+        <v>41308</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2">
         <v>41309</v>
@@ -1410,7 +1366,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2">
         <v>41309</v>
@@ -1427,24 +1383,24 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2">
-        <v>41310</v>
+        <v>41309</v>
       </c>
       <c r="C25">
         <v>564</v>
       </c>
       <c r="D25">
-        <v>41310</v>
+        <v>41309</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2">
         <v>41310</v>
@@ -1461,7 +1417,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2">
         <v>41310</v>
@@ -1478,24 +1434,24 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2">
-        <v>41311</v>
+        <v>41310</v>
       </c>
       <c r="C28">
         <v>564</v>
       </c>
       <c r="D28">
-        <v>41311</v>
+        <v>41310</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2">
         <v>41311</v>
@@ -1512,7 +1468,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2">
         <v>41311</v>
@@ -1529,24 +1485,24 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2">
-        <v>41312</v>
+        <v>41311</v>
       </c>
       <c r="C31">
         <v>564</v>
       </c>
       <c r="D31">
-        <v>41312</v>
+        <v>41311</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2">
         <v>41312</v>
@@ -1563,7 +1519,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2">
         <v>41312</v>
@@ -1580,24 +1536,24 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>41313</v>
+        <v>41312</v>
       </c>
       <c r="C34">
         <v>564</v>
       </c>
       <c r="D34">
-        <v>41313</v>
+        <v>41312</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
         <v>41313</v>
@@ -1614,7 +1570,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
         <v>41313</v>
@@ -1631,24 +1587,24 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>41314</v>
+        <v>41313</v>
       </c>
       <c r="C37">
         <v>564</v>
       </c>
       <c r="D37">
-        <v>41314</v>
+        <v>41313</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2">
         <v>41314</v>
@@ -1665,7 +1621,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2">
         <v>41314</v>
@@ -1682,24 +1638,24 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2">
-        <v>41315</v>
+        <v>41314</v>
       </c>
       <c r="C40">
         <v>564</v>
       </c>
       <c r="D40">
-        <v>41315</v>
+        <v>41314</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="2">
         <v>41315</v>
@@ -1716,7 +1672,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2">
         <v>41315</v>
@@ -1733,24 +1689,24 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B43" s="2">
-        <v>41316</v>
+        <v>41315</v>
       </c>
       <c r="C43">
         <v>564</v>
       </c>
       <c r="D43">
-        <v>41316</v>
+        <v>41315</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" s="2">
         <v>41316</v>
@@ -1767,7 +1723,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="2">
         <v>41316</v>
@@ -1784,24 +1740,24 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B46" s="2">
-        <v>41317</v>
+        <v>41316</v>
       </c>
       <c r="C46">
         <v>564</v>
       </c>
       <c r="D46">
-        <v>41317</v>
+        <v>41316</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B47" s="2">
         <v>41317</v>
@@ -1818,7 +1774,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48" s="2">
         <v>41317</v>
@@ -1835,24 +1791,24 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B49" s="2">
-        <v>41318</v>
+        <v>41317</v>
       </c>
       <c r="C49">
         <v>564</v>
       </c>
       <c r="D49">
-        <v>41318</v>
+        <v>41317</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B50" s="2">
         <v>41318</v>
@@ -1869,7 +1825,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B51" s="2">
         <v>41318</v>
@@ -1886,24 +1842,24 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B52" s="2">
-        <v>41319</v>
+        <v>41318</v>
       </c>
       <c r="C52">
         <v>564</v>
       </c>
       <c r="D52">
-        <v>41319</v>
+        <v>41318</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B53" s="2">
         <v>41319</v>
@@ -1920,7 +1876,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B54" s="2">
         <v>41319</v>
@@ -1937,24 +1893,24 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B55" s="2">
-        <v>41320</v>
+        <v>41319</v>
       </c>
       <c r="C55">
         <v>564</v>
       </c>
       <c r="D55">
-        <v>41320</v>
+        <v>41319</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56" s="2">
         <v>41320</v>
@@ -1971,7 +1927,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57" s="2">
         <v>41320</v>
@@ -1988,24 +1944,24 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B58" s="2">
-        <v>41321</v>
+        <v>41320</v>
       </c>
       <c r="C58">
         <v>564</v>
       </c>
       <c r="D58">
-        <v>41321</v>
+        <v>41320</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B59" s="2">
         <v>41321</v>
@@ -2022,7 +1978,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60" s="2">
         <v>41321</v>
@@ -2039,24 +1995,24 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B61" s="2">
-        <v>41322</v>
+        <v>41321</v>
       </c>
       <c r="C61">
         <v>564</v>
       </c>
       <c r="D61">
-        <v>41322</v>
+        <v>41321</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62" s="2">
         <v>41322</v>
@@ -2073,7 +2029,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63" s="2">
         <v>41322</v>
@@ -2090,24 +2046,24 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B64" s="2">
-        <v>41323</v>
+        <v>41322</v>
       </c>
       <c r="C64">
         <v>564</v>
       </c>
       <c r="D64">
-        <v>41323</v>
+        <v>41322</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B65" s="2">
         <v>41323</v>
@@ -2124,7 +2080,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66" s="2">
         <v>41323</v>
@@ -2141,24 +2097,24 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B67" s="2">
-        <v>41324</v>
+        <v>41323</v>
       </c>
       <c r="C67">
         <v>564</v>
       </c>
       <c r="D67">
-        <v>41324</v>
+        <v>41323</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B68" s="2">
         <v>41324</v>
@@ -2175,7 +2131,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69" s="2">
         <v>41324</v>
@@ -2192,24 +2148,24 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B70" s="2">
-        <v>41325</v>
+        <v>41324</v>
       </c>
       <c r="C70">
         <v>564</v>
       </c>
       <c r="D70">
-        <v>41325</v>
+        <v>41324</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B71" s="2">
         <v>41325</v>
@@ -2226,7 +2182,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B72" s="2">
         <v>41325</v>
@@ -2243,24 +2199,24 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B73" s="2">
-        <v>41326</v>
+        <v>41325</v>
       </c>
       <c r="C73">
         <v>564</v>
       </c>
       <c r="D73">
-        <v>41326</v>
+        <v>41325</v>
       </c>
       <c r="E73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B74" s="2">
         <v>41326</v>
@@ -2277,7 +2233,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B75" s="2">
         <v>41326</v>
@@ -2294,24 +2250,24 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B76" s="2">
-        <v>41327</v>
+        <v>41326</v>
       </c>
       <c r="C76">
         <v>564</v>
       </c>
       <c r="D76">
-        <v>41327</v>
+        <v>41326</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B77" s="2">
         <v>41327</v>
@@ -2328,7 +2284,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B78" s="2">
         <v>41327</v>
@@ -2345,24 +2301,24 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B79" s="2">
-        <v>41328</v>
+        <v>41327</v>
       </c>
       <c r="C79">
         <v>564</v>
       </c>
       <c r="D79">
-        <v>41328</v>
+        <v>41327</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B80" s="2">
         <v>41328</v>
@@ -2379,7 +2335,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B81" s="2">
         <v>41328</v>
@@ -2396,24 +2352,24 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B82" s="2">
-        <v>41329</v>
+        <v>41328</v>
       </c>
       <c r="C82">
         <v>564</v>
       </c>
       <c r="D82">
-        <v>41329</v>
+        <v>41328</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B83" s="2">
         <v>41329</v>
@@ -2430,7 +2386,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B84" s="2">
         <v>41329</v>
@@ -2447,24 +2403,24 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B85" s="2">
-        <v>41330</v>
+        <v>41329</v>
       </c>
       <c r="C85">
         <v>564</v>
       </c>
       <c r="D85">
-        <v>41330</v>
+        <v>41329</v>
       </c>
       <c r="E85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B86" s="2">
         <v>41330</v>
@@ -2481,7 +2437,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B87" s="2">
         <v>41330</v>
@@ -2498,24 +2454,24 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B88" s="2">
-        <v>41331</v>
+        <v>41330</v>
       </c>
       <c r="C88">
         <v>564</v>
       </c>
       <c r="D88">
-        <v>41331</v>
+        <v>41330</v>
       </c>
       <c r="E88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B89" s="2">
         <v>41331</v>
@@ -2532,7 +2488,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B90" s="2">
         <v>41331</v>
@@ -2549,24 +2505,24 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B91" s="2">
-        <v>41332</v>
+        <v>41331</v>
       </c>
       <c r="C91">
         <v>564</v>
       </c>
       <c r="D91">
-        <v>41332</v>
+        <v>41331</v>
       </c>
       <c r="E91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B92" s="2">
         <v>41332</v>
@@ -2583,7 +2539,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B93" s="2">
         <v>41332</v>
@@ -2600,24 +2556,24 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B94" s="2">
-        <v>41333</v>
+        <v>41332</v>
       </c>
       <c r="C94">
         <v>564</v>
       </c>
       <c r="D94">
-        <v>41333</v>
+        <v>41332</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B95" s="2">
         <v>41333</v>
@@ -2634,13 +2590,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B96" s="2">
         <v>41333</v>
       </c>
       <c r="C96">
-        <v>16</v>
+        <v>564</v>
       </c>
       <c r="D96">
         <v>41333</v>
@@ -2651,12 +2607,15 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B97" s="2">
         <v>41333</v>
       </c>
-      <c r="D97" s="4">
+      <c r="C97">
+        <v>16</v>
+      </c>
+      <c r="D97">
         <v>41333</v>
       </c>
       <c r="E97" t="s">

--- a/CG_SK_Lab1/CG_SK_Lab1/testdb.xlsx
+++ b/CG_SK_Lab1/CG_SK_Lab1/testdb.xlsx
@@ -16,13 +16,13 @@
   </sheets>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
-    <customWorkbookView name="Network Student - Personal View" guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1244" windowHeight="535" activeSheetId="2"/>
+    <customWorkbookView name="Network Student - Personal View" guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="871" windowHeight="678" activeSheetId="6"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -161,6 +161,15 @@
   <si>
     <t>Friday</t>
   </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Number of Multiples</t>
+  </si>
+  <si>
+    <t>excusal</t>
+  </si>
 </sst>
 </file>
 
@@ -201,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -209,6 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -216,6 +226,4375 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{6A088286-0EEB-47B9-8096-03EF60C01445}" diskRevisions="1" revisionId="402" version="5">
+  <header guid="{CDC0E8B4-BCE5-4D3F-8424-F8C784956298}" dateTime="2013-02-28T23:21:13" maxSheetId="7" userName="Network Student" r:id="rId1">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{35DA0982-C5CD-4FE9-BCD2-1277FED1C2A0}" dateTime="2013-02-28T23:24:06" maxSheetId="7" userName="Network Student" r:id="rId2" minRId="1">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{07C59B97-6326-40DD-9EDD-B2F9200380FB}" dateTime="2013-02-28T23:24:24" maxSheetId="7" userName="Network Student" r:id="rId3" minRId="2" maxRId="191">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{75126F2E-4F5C-48EE-88DD-C6E32F8F7E3A}" dateTime="2013-02-28T23:26:07" maxSheetId="7" userName="Network Student" r:id="rId4" minRId="192" maxRId="380">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6A088286-0EEB-47B9-8096-03EF60C01445}" dateTime="2013-02-28T23:31:17" maxSheetId="7" userName="Network Student" r:id="rId5" minRId="381" maxRId="402">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rrc rId="381" sId="6" ref="A97:XFD97" action="deleteRow">
+    <rfmt sheetId="6" xfDxf="1" sqref="A97:XFD97" start="0" length="0"/>
+    <rcc rId="0" sId="6">
+      <nc r="A97" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="6" dxf="1" numFmtId="19">
+      <nc r="B97">
+        <v>41333</v>
+      </nc>
+      <ndxf>
+        <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="6">
+      <nc r="C97" t="inlineStr">
+        <is>
+          <t>To be determined</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="6">
+      <nc r="D97">
+        <v>41333</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="6">
+      <nc r="E97" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="382" sId="6" ref="A96:XFD96" action="deleteRow">
+    <rfmt sheetId="6" xfDxf="1" sqref="A96:XFD96" start="0" length="0"/>
+    <rcc rId="0" sId="6">
+      <nc r="A96" t="inlineStr">
+        <is>
+          <t>lunch</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="6" dxf="1" numFmtId="19">
+      <nc r="B96">
+        <v>41333</v>
+      </nc>
+      <ndxf>
+        <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="6">
+      <nc r="C96">
+        <v>16</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="6">
+      <nc r="D96">
+        <v>41333</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="6">
+      <nc r="E96" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="383" sId="6" ref="A95:XFD95" action="insertRow"/>
+  <rrc rId="384" sId="6" ref="A96:XFD96" action="deleteRow">
+    <rfmt sheetId="6" xfDxf="1" sqref="A96:XFD96" start="0" length="0"/>
+    <rcc rId="0" sId="6">
+      <nc r="A96" t="inlineStr">
+        <is>
+          <t>lunch</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="6" dxf="1" numFmtId="19">
+      <nc r="B96">
+        <v>41333</v>
+      </nc>
+      <ndxf>
+        <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="6">
+      <nc r="C96">
+        <v>16</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="6">
+      <nc r="D96">
+        <v>41333</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="6">
+      <nc r="E96" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="385" sId="6" ref="A2:XFD2" action="insertRow"/>
+  <rrc rId="386" sId="6" ref="A2:XFD2" action="insertRow"/>
+  <rrc rId="387" sId="6" ref="A2:XFD2" action="insertRow"/>
+  <rcc rId="388" sId="6">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="389" sId="6">
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="390" sId="6">
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="391" sId="6" odxf="1" dxf="1" numFmtId="19">
+    <nc r="B2">
+      <v>41302</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="392" sId="6" odxf="1" dxf="1" numFmtId="19">
+    <nc r="B3">
+      <v>41302</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="393" sId="6" odxf="1" dxf="1" numFmtId="19">
+    <nc r="B4">
+      <v>41302</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="394" sId="6">
+    <nc r="C2">
+      <v>564</v>
+    </nc>
+  </rcc>
+  <rcc rId="395" sId="6">
+    <nc r="C3">
+      <v>564</v>
+    </nc>
+  </rcc>
+  <rcc rId="396" sId="6">
+    <nc r="C4">
+      <v>564</v>
+    </nc>
+  </rcc>
+  <rcc rId="397" sId="6">
+    <nc r="D2">
+      <v>41302</v>
+    </nc>
+  </rcc>
+  <rcc rId="398" sId="6">
+    <nc r="D3">
+      <v>41302</v>
+    </nc>
+  </rcc>
+  <rcc rId="399" sId="6">
+    <nc r="D4">
+      <v>41302</v>
+    </nc>
+  </rcc>
+  <rcc rId="400" sId="6">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>Monday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="401" sId="6">
+    <nc r="E3" t="inlineStr">
+      <is>
+        <t>Monday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="402" sId="6">
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>Monday</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="2" sId="6">
+    <oc r="A2" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3" sId="6">
+    <oc r="A3" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4" sId="6" numFmtId="19">
+    <oc r="B3">
+      <v>41302</v>
+    </oc>
+    <nc r="B3">
+      <v>41303</v>
+    </nc>
+  </rcc>
+  <rcc rId="5" sId="6">
+    <oc r="D3">
+      <v>41302</v>
+    </oc>
+    <nc r="D3">
+      <v>41303</v>
+    </nc>
+  </rcc>
+  <rcc rId="6" sId="6">
+    <oc r="E3" t="inlineStr">
+      <is>
+        <t>Monday</t>
+      </is>
+    </oc>
+    <nc r="E3" t="inlineStr">
+      <is>
+        <t>Tuesday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="7" sId="6">
+    <oc r="A4" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="8" sId="6">
+    <oc r="A5" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A5" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="9" sId="6">
+    <oc r="A6" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A6" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="10" sId="6" numFmtId="19">
+    <oc r="B6">
+      <v>41303</v>
+    </oc>
+    <nc r="B6">
+      <v>41304</v>
+    </nc>
+  </rcc>
+  <rcc rId="11" sId="6">
+    <oc r="D6">
+      <v>41303</v>
+    </oc>
+    <nc r="D6">
+      <v>41304</v>
+    </nc>
+  </rcc>
+  <rcc rId="12" sId="6">
+    <oc r="E6" t="inlineStr">
+      <is>
+        <t>Tuesday</t>
+      </is>
+    </oc>
+    <nc r="E6" t="inlineStr">
+      <is>
+        <t>Wednesday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="13" sId="6">
+    <oc r="A7" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A7" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="14" sId="6">
+    <oc r="A8" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A8" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="15" sId="6">
+    <oc r="A9" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A9" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="16" sId="6" numFmtId="19">
+    <oc r="B9">
+      <v>41304</v>
+    </oc>
+    <nc r="B9">
+      <v>41305</v>
+    </nc>
+  </rcc>
+  <rcc rId="17" sId="6">
+    <oc r="D9">
+      <v>41304</v>
+    </oc>
+    <nc r="D9">
+      <v>41305</v>
+    </nc>
+  </rcc>
+  <rcc rId="18" sId="6">
+    <oc r="E9" t="inlineStr">
+      <is>
+        <t>Wednesday</t>
+      </is>
+    </oc>
+    <nc r="E9" t="inlineStr">
+      <is>
+        <t>Thursday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="19" sId="6">
+    <oc r="A10" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A10" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="20" sId="6">
+    <oc r="A11" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A11" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="21" sId="6">
+    <oc r="A12" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A12" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="22" sId="6" numFmtId="19">
+    <oc r="B12">
+      <v>41305</v>
+    </oc>
+    <nc r="B12">
+      <v>41306</v>
+    </nc>
+  </rcc>
+  <rcc rId="23" sId="6">
+    <oc r="D12">
+      <v>41305</v>
+    </oc>
+    <nc r="D12">
+      <v>41306</v>
+    </nc>
+  </rcc>
+  <rcc rId="24" sId="6">
+    <oc r="E12" t="inlineStr">
+      <is>
+        <t>Thursday</t>
+      </is>
+    </oc>
+    <nc r="E12" t="inlineStr">
+      <is>
+        <t>Friday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="25" sId="6">
+    <oc r="A13" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A13" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="26" sId="6">
+    <oc r="A14" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A14" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="27" sId="6">
+    <oc r="A15" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A15" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="28" sId="6" numFmtId="19">
+    <oc r="B15">
+      <v>41306</v>
+    </oc>
+    <nc r="B15">
+      <v>41307</v>
+    </nc>
+  </rcc>
+  <rcc rId="29" sId="6">
+    <oc r="D15">
+      <v>41306</v>
+    </oc>
+    <nc r="D15">
+      <v>41307</v>
+    </nc>
+  </rcc>
+  <rcc rId="30" sId="6">
+    <oc r="E15" t="inlineStr">
+      <is>
+        <t>Friday</t>
+      </is>
+    </oc>
+    <nc r="E15" t="inlineStr">
+      <is>
+        <t>Saturday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="31" sId="6">
+    <oc r="A16" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A16" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="32" sId="6">
+    <oc r="A17" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A17" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="33" sId="6">
+    <oc r="A18" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A18" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="34" sId="6" numFmtId="19">
+    <oc r="B18">
+      <v>41307</v>
+    </oc>
+    <nc r="B18">
+      <v>41308</v>
+    </nc>
+  </rcc>
+  <rcc rId="35" sId="6">
+    <oc r="D18">
+      <v>41307</v>
+    </oc>
+    <nc r="D18">
+      <v>41308</v>
+    </nc>
+  </rcc>
+  <rcc rId="36" sId="6">
+    <oc r="E18" t="inlineStr">
+      <is>
+        <t>Saturday</t>
+      </is>
+    </oc>
+    <nc r="E18" t="inlineStr">
+      <is>
+        <t>Sunday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="37" sId="6">
+    <oc r="A19" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A19" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="38" sId="6">
+    <oc r="A20" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A20" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="39" sId="6">
+    <oc r="A21" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A21" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="40" sId="6" numFmtId="19">
+    <oc r="B21">
+      <v>41308</v>
+    </oc>
+    <nc r="B21">
+      <v>41309</v>
+    </nc>
+  </rcc>
+  <rcc rId="41" sId="6">
+    <oc r="D21">
+      <v>41308</v>
+    </oc>
+    <nc r="D21">
+      <v>41309</v>
+    </nc>
+  </rcc>
+  <rcc rId="42" sId="6">
+    <oc r="E21" t="inlineStr">
+      <is>
+        <t>Sunday</t>
+      </is>
+    </oc>
+    <nc r="E21" t="inlineStr">
+      <is>
+        <t>Monday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="43" sId="6">
+    <oc r="A22" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A22" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="44" sId="6">
+    <oc r="A23" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A23" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="45" sId="6">
+    <oc r="A24" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A24" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="46" sId="6" numFmtId="19">
+    <oc r="B24">
+      <v>41309</v>
+    </oc>
+    <nc r="B24">
+      <v>41310</v>
+    </nc>
+  </rcc>
+  <rcc rId="47" sId="6">
+    <oc r="D24">
+      <v>41309</v>
+    </oc>
+    <nc r="D24">
+      <v>41310</v>
+    </nc>
+  </rcc>
+  <rcc rId="48" sId="6">
+    <oc r="E24" t="inlineStr">
+      <is>
+        <t>Monday</t>
+      </is>
+    </oc>
+    <nc r="E24" t="inlineStr">
+      <is>
+        <t>Tuesday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="49" sId="6">
+    <oc r="A25" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A25" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="50" sId="6">
+    <oc r="A26" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A26" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="51" sId="6">
+    <oc r="A27" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A27" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="52" sId="6" numFmtId="19">
+    <oc r="B27">
+      <v>41310</v>
+    </oc>
+    <nc r="B27">
+      <v>41311</v>
+    </nc>
+  </rcc>
+  <rcc rId="53" sId="6">
+    <oc r="D27">
+      <v>41310</v>
+    </oc>
+    <nc r="D27">
+      <v>41311</v>
+    </nc>
+  </rcc>
+  <rcc rId="54" sId="6">
+    <oc r="E27" t="inlineStr">
+      <is>
+        <t>Tuesday</t>
+      </is>
+    </oc>
+    <nc r="E27" t="inlineStr">
+      <is>
+        <t>Wednesday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="55" sId="6">
+    <oc r="A28" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A28" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="56" sId="6">
+    <oc r="A29" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A29" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="57" sId="6">
+    <oc r="A30" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A30" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="58" sId="6" numFmtId="19">
+    <oc r="B30">
+      <v>41311</v>
+    </oc>
+    <nc r="B30">
+      <v>41312</v>
+    </nc>
+  </rcc>
+  <rcc rId="59" sId="6">
+    <oc r="D30">
+      <v>41311</v>
+    </oc>
+    <nc r="D30">
+      <v>41312</v>
+    </nc>
+  </rcc>
+  <rcc rId="60" sId="6">
+    <oc r="E30" t="inlineStr">
+      <is>
+        <t>Wednesday</t>
+      </is>
+    </oc>
+    <nc r="E30" t="inlineStr">
+      <is>
+        <t>Thursday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="61" sId="6">
+    <oc r="A31" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A31" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="62" sId="6">
+    <oc r="A32" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A32" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="63" sId="6">
+    <oc r="A33" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A33" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="64" sId="6" numFmtId="19">
+    <oc r="B33">
+      <v>41312</v>
+    </oc>
+    <nc r="B33">
+      <v>41313</v>
+    </nc>
+  </rcc>
+  <rcc rId="65" sId="6">
+    <oc r="D33">
+      <v>41312</v>
+    </oc>
+    <nc r="D33">
+      <v>41313</v>
+    </nc>
+  </rcc>
+  <rcc rId="66" sId="6">
+    <oc r="E33" t="inlineStr">
+      <is>
+        <t>Thursday</t>
+      </is>
+    </oc>
+    <nc r="E33" t="inlineStr">
+      <is>
+        <t>Friday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="67" sId="6">
+    <oc r="A34" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A34" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="68" sId="6">
+    <oc r="A35" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A35" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="69" sId="6">
+    <oc r="A36" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A36" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="70" sId="6" numFmtId="19">
+    <oc r="B36">
+      <v>41313</v>
+    </oc>
+    <nc r="B36">
+      <v>41314</v>
+    </nc>
+  </rcc>
+  <rcc rId="71" sId="6">
+    <oc r="D36">
+      <v>41313</v>
+    </oc>
+    <nc r="D36">
+      <v>41314</v>
+    </nc>
+  </rcc>
+  <rcc rId="72" sId="6">
+    <oc r="E36" t="inlineStr">
+      <is>
+        <t>Friday</t>
+      </is>
+    </oc>
+    <nc r="E36" t="inlineStr">
+      <is>
+        <t>Saturday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="73" sId="6">
+    <oc r="A37" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A37" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="74" sId="6">
+    <oc r="A38" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A38" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="75" sId="6">
+    <oc r="A39" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A39" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="76" sId="6" numFmtId="19">
+    <oc r="B39">
+      <v>41314</v>
+    </oc>
+    <nc r="B39">
+      <v>41315</v>
+    </nc>
+  </rcc>
+  <rcc rId="77" sId="6">
+    <oc r="D39">
+      <v>41314</v>
+    </oc>
+    <nc r="D39">
+      <v>41315</v>
+    </nc>
+  </rcc>
+  <rcc rId="78" sId="6">
+    <oc r="E39" t="inlineStr">
+      <is>
+        <t>Saturday</t>
+      </is>
+    </oc>
+    <nc r="E39" t="inlineStr">
+      <is>
+        <t>Sunday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="79" sId="6">
+    <oc r="A40" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A40" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="80" sId="6">
+    <oc r="A41" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A41" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="81" sId="6">
+    <oc r="A42" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A42" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="82" sId="6" numFmtId="19">
+    <oc r="B42">
+      <v>41315</v>
+    </oc>
+    <nc r="B42">
+      <v>41316</v>
+    </nc>
+  </rcc>
+  <rcc rId="83" sId="6">
+    <oc r="D42">
+      <v>41315</v>
+    </oc>
+    <nc r="D42">
+      <v>41316</v>
+    </nc>
+  </rcc>
+  <rcc rId="84" sId="6">
+    <oc r="E42" t="inlineStr">
+      <is>
+        <t>Sunday</t>
+      </is>
+    </oc>
+    <nc r="E42" t="inlineStr">
+      <is>
+        <t>Monday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="85" sId="6">
+    <oc r="A43" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A43" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="86" sId="6">
+    <oc r="A44" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A44" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="87" sId="6">
+    <oc r="A45" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A45" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="88" sId="6" numFmtId="19">
+    <oc r="B45">
+      <v>41316</v>
+    </oc>
+    <nc r="B45">
+      <v>41317</v>
+    </nc>
+  </rcc>
+  <rcc rId="89" sId="6">
+    <oc r="D45">
+      <v>41316</v>
+    </oc>
+    <nc r="D45">
+      <v>41317</v>
+    </nc>
+  </rcc>
+  <rcc rId="90" sId="6">
+    <oc r="E45" t="inlineStr">
+      <is>
+        <t>Monday</t>
+      </is>
+    </oc>
+    <nc r="E45" t="inlineStr">
+      <is>
+        <t>Tuesday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="91" sId="6">
+    <oc r="A46" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A46" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="92" sId="6">
+    <oc r="A47" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A47" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="93" sId="6">
+    <oc r="A48" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A48" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="94" sId="6" numFmtId="19">
+    <oc r="B48">
+      <v>41317</v>
+    </oc>
+    <nc r="B48">
+      <v>41318</v>
+    </nc>
+  </rcc>
+  <rcc rId="95" sId="6">
+    <oc r="D48">
+      <v>41317</v>
+    </oc>
+    <nc r="D48">
+      <v>41318</v>
+    </nc>
+  </rcc>
+  <rcc rId="96" sId="6">
+    <oc r="E48" t="inlineStr">
+      <is>
+        <t>Tuesday</t>
+      </is>
+    </oc>
+    <nc r="E48" t="inlineStr">
+      <is>
+        <t>Wednesday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="97" sId="6">
+    <oc r="A49" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A49" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="98" sId="6">
+    <oc r="A50" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A50" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="99" sId="6">
+    <oc r="A51" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A51" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="100" sId="6" numFmtId="19">
+    <oc r="B51">
+      <v>41318</v>
+    </oc>
+    <nc r="B51">
+      <v>41319</v>
+    </nc>
+  </rcc>
+  <rcc rId="101" sId="6">
+    <oc r="D51">
+      <v>41318</v>
+    </oc>
+    <nc r="D51">
+      <v>41319</v>
+    </nc>
+  </rcc>
+  <rcc rId="102" sId="6">
+    <oc r="E51" t="inlineStr">
+      <is>
+        <t>Wednesday</t>
+      </is>
+    </oc>
+    <nc r="E51" t="inlineStr">
+      <is>
+        <t>Thursday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="103" sId="6">
+    <oc r="A52" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A52" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="104" sId="6">
+    <oc r="A53" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A53" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="105" sId="6">
+    <oc r="A54" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A54" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="106" sId="6" numFmtId="19">
+    <oc r="B54">
+      <v>41319</v>
+    </oc>
+    <nc r="B54">
+      <v>41320</v>
+    </nc>
+  </rcc>
+  <rcc rId="107" sId="6">
+    <oc r="D54">
+      <v>41319</v>
+    </oc>
+    <nc r="D54">
+      <v>41320</v>
+    </nc>
+  </rcc>
+  <rcc rId="108" sId="6">
+    <oc r="E54" t="inlineStr">
+      <is>
+        <t>Thursday</t>
+      </is>
+    </oc>
+    <nc r="E54" t="inlineStr">
+      <is>
+        <t>Friday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="109" sId="6">
+    <oc r="A55" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A55" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="110" sId="6">
+    <oc r="A56" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A56" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="111" sId="6">
+    <oc r="A57" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A57" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="112" sId="6" numFmtId="19">
+    <oc r="B57">
+      <v>41320</v>
+    </oc>
+    <nc r="B57">
+      <v>41321</v>
+    </nc>
+  </rcc>
+  <rcc rId="113" sId="6">
+    <oc r="D57">
+      <v>41320</v>
+    </oc>
+    <nc r="D57">
+      <v>41321</v>
+    </nc>
+  </rcc>
+  <rcc rId="114" sId="6">
+    <oc r="E57" t="inlineStr">
+      <is>
+        <t>Friday</t>
+      </is>
+    </oc>
+    <nc r="E57" t="inlineStr">
+      <is>
+        <t>Saturday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="115" sId="6">
+    <oc r="A58" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A58" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="116" sId="6">
+    <oc r="A59" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A59" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="117" sId="6">
+    <oc r="A60" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A60" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="118" sId="6" numFmtId="19">
+    <oc r="B60">
+      <v>41321</v>
+    </oc>
+    <nc r="B60">
+      <v>41322</v>
+    </nc>
+  </rcc>
+  <rcc rId="119" sId="6">
+    <oc r="D60">
+      <v>41321</v>
+    </oc>
+    <nc r="D60">
+      <v>41322</v>
+    </nc>
+  </rcc>
+  <rcc rId="120" sId="6">
+    <oc r="E60" t="inlineStr">
+      <is>
+        <t>Saturday</t>
+      </is>
+    </oc>
+    <nc r="E60" t="inlineStr">
+      <is>
+        <t>Sunday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="121" sId="6">
+    <oc r="A61" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A61" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="122" sId="6">
+    <oc r="A62" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A62" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="123" sId="6">
+    <oc r="A63" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A63" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="124" sId="6" numFmtId="19">
+    <oc r="B63">
+      <v>41322</v>
+    </oc>
+    <nc r="B63">
+      <v>41323</v>
+    </nc>
+  </rcc>
+  <rcc rId="125" sId="6">
+    <oc r="D63">
+      <v>41322</v>
+    </oc>
+    <nc r="D63">
+      <v>41323</v>
+    </nc>
+  </rcc>
+  <rcc rId="126" sId="6">
+    <oc r="E63" t="inlineStr">
+      <is>
+        <t>Sunday</t>
+      </is>
+    </oc>
+    <nc r="E63" t="inlineStr">
+      <is>
+        <t>Monday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="127" sId="6">
+    <oc r="A64" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A64" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="128" sId="6">
+    <oc r="A65" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A65" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="129" sId="6">
+    <oc r="A66" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A66" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="130" sId="6" numFmtId="19">
+    <oc r="B66">
+      <v>41323</v>
+    </oc>
+    <nc r="B66">
+      <v>41324</v>
+    </nc>
+  </rcc>
+  <rcc rId="131" sId="6">
+    <oc r="D66">
+      <v>41323</v>
+    </oc>
+    <nc r="D66">
+      <v>41324</v>
+    </nc>
+  </rcc>
+  <rcc rId="132" sId="6">
+    <oc r="E66" t="inlineStr">
+      <is>
+        <t>Monday</t>
+      </is>
+    </oc>
+    <nc r="E66" t="inlineStr">
+      <is>
+        <t>Tuesday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="133" sId="6">
+    <oc r="A67" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A67" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="134" sId="6">
+    <oc r="A68" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A68" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="135" sId="6">
+    <oc r="A69" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A69" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="136" sId="6" numFmtId="19">
+    <oc r="B69">
+      <v>41324</v>
+    </oc>
+    <nc r="B69">
+      <v>41325</v>
+    </nc>
+  </rcc>
+  <rcc rId="137" sId="6">
+    <oc r="D69">
+      <v>41324</v>
+    </oc>
+    <nc r="D69">
+      <v>41325</v>
+    </nc>
+  </rcc>
+  <rcc rId="138" sId="6">
+    <oc r="E69" t="inlineStr">
+      <is>
+        <t>Tuesday</t>
+      </is>
+    </oc>
+    <nc r="E69" t="inlineStr">
+      <is>
+        <t>Wednesday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="139" sId="6">
+    <oc r="A70" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A70" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="140" sId="6">
+    <oc r="A71" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A71" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="141" sId="6">
+    <oc r="A72" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A72" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="142" sId="6" numFmtId="19">
+    <oc r="B72">
+      <v>41325</v>
+    </oc>
+    <nc r="B72">
+      <v>41326</v>
+    </nc>
+  </rcc>
+  <rcc rId="143" sId="6">
+    <oc r="D72">
+      <v>41325</v>
+    </oc>
+    <nc r="D72">
+      <v>41326</v>
+    </nc>
+  </rcc>
+  <rcc rId="144" sId="6">
+    <oc r="E72" t="inlineStr">
+      <is>
+        <t>Wednesday</t>
+      </is>
+    </oc>
+    <nc r="E72" t="inlineStr">
+      <is>
+        <t>Thursday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="145" sId="6">
+    <oc r="A73" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A73" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="146" sId="6">
+    <oc r="A74" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A74" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="147" sId="6">
+    <oc r="A75" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A75" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="148" sId="6" numFmtId="19">
+    <oc r="B75">
+      <v>41326</v>
+    </oc>
+    <nc r="B75">
+      <v>41327</v>
+    </nc>
+  </rcc>
+  <rcc rId="149" sId="6">
+    <oc r="D75">
+      <v>41326</v>
+    </oc>
+    <nc r="D75">
+      <v>41327</v>
+    </nc>
+  </rcc>
+  <rcc rId="150" sId="6">
+    <oc r="E75" t="inlineStr">
+      <is>
+        <t>Thursday</t>
+      </is>
+    </oc>
+    <nc r="E75" t="inlineStr">
+      <is>
+        <t>Friday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="151" sId="6">
+    <oc r="A76" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A76" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="152" sId="6">
+    <oc r="A77" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A77" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="153" sId="6">
+    <oc r="A78" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A78" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="154" sId="6" numFmtId="19">
+    <oc r="B78">
+      <v>41327</v>
+    </oc>
+    <nc r="B78">
+      <v>41328</v>
+    </nc>
+  </rcc>
+  <rcc rId="155" sId="6">
+    <oc r="D78">
+      <v>41327</v>
+    </oc>
+    <nc r="D78">
+      <v>41328</v>
+    </nc>
+  </rcc>
+  <rcc rId="156" sId="6">
+    <oc r="E78" t="inlineStr">
+      <is>
+        <t>Friday</t>
+      </is>
+    </oc>
+    <nc r="E78" t="inlineStr">
+      <is>
+        <t>Saturday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="157" sId="6">
+    <oc r="A79" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A79" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="158" sId="6">
+    <oc r="A80" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A80" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="159" sId="6">
+    <oc r="A81" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A81" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="160" sId="6" numFmtId="19">
+    <oc r="B81">
+      <v>41328</v>
+    </oc>
+    <nc r="B81">
+      <v>41329</v>
+    </nc>
+  </rcc>
+  <rcc rId="161" sId="6">
+    <oc r="D81">
+      <v>41328</v>
+    </oc>
+    <nc r="D81">
+      <v>41329</v>
+    </nc>
+  </rcc>
+  <rcc rId="162" sId="6">
+    <oc r="E81" t="inlineStr">
+      <is>
+        <t>Saturday</t>
+      </is>
+    </oc>
+    <nc r="E81" t="inlineStr">
+      <is>
+        <t>Sunday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="163" sId="6">
+    <oc r="A82" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A82" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="164" sId="6">
+    <oc r="A83" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A83" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="165" sId="6">
+    <oc r="A84" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A84" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="166" sId="6" numFmtId="19">
+    <oc r="B84">
+      <v>41329</v>
+    </oc>
+    <nc r="B84">
+      <v>41330</v>
+    </nc>
+  </rcc>
+  <rcc rId="167" sId="6">
+    <oc r="D84">
+      <v>41329</v>
+    </oc>
+    <nc r="D84">
+      <v>41330</v>
+    </nc>
+  </rcc>
+  <rcc rId="168" sId="6">
+    <oc r="E84" t="inlineStr">
+      <is>
+        <t>Sunday</t>
+      </is>
+    </oc>
+    <nc r="E84" t="inlineStr">
+      <is>
+        <t>Monday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="169" sId="6">
+    <oc r="A85" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A85" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="170" sId="6">
+    <oc r="A86" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A86" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="171" sId="6">
+    <oc r="A87" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A87" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="172" sId="6" numFmtId="19">
+    <oc r="B87">
+      <v>41330</v>
+    </oc>
+    <nc r="B87">
+      <v>41331</v>
+    </nc>
+  </rcc>
+  <rcc rId="173" sId="6">
+    <oc r="D87">
+      <v>41330</v>
+    </oc>
+    <nc r="D87">
+      <v>41331</v>
+    </nc>
+  </rcc>
+  <rcc rId="174" sId="6">
+    <oc r="E87" t="inlineStr">
+      <is>
+        <t>Monday</t>
+      </is>
+    </oc>
+    <nc r="E87" t="inlineStr">
+      <is>
+        <t>Tuesday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="175" sId="6">
+    <oc r="A88" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A88" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="176" sId="6">
+    <oc r="A89" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A89" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="177" sId="6">
+    <oc r="A90" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A90" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="178" sId="6" numFmtId="19">
+    <oc r="B90">
+      <v>41331</v>
+    </oc>
+    <nc r="B90">
+      <v>41332</v>
+    </nc>
+  </rcc>
+  <rcc rId="179" sId="6">
+    <oc r="D90">
+      <v>41331</v>
+    </oc>
+    <nc r="D90">
+      <v>41332</v>
+    </nc>
+  </rcc>
+  <rcc rId="180" sId="6">
+    <oc r="E90" t="inlineStr">
+      <is>
+        <t>Tuesday</t>
+      </is>
+    </oc>
+    <nc r="E90" t="inlineStr">
+      <is>
+        <t>Wednesday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="181" sId="6">
+    <oc r="A91" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A91" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="182" sId="6">
+    <oc r="A92" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A92" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="183" sId="6">
+    <oc r="A93" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A93" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="184" sId="6" numFmtId="19">
+    <oc r="B93">
+      <v>41332</v>
+    </oc>
+    <nc r="B93">
+      <v>41333</v>
+    </nc>
+  </rcc>
+  <rcc rId="185" sId="6">
+    <oc r="D93">
+      <v>41332</v>
+    </oc>
+    <nc r="D93">
+      <v>41333</v>
+    </nc>
+  </rcc>
+  <rcc rId="186" sId="6">
+    <oc r="E93" t="inlineStr">
+      <is>
+        <t>Wednesday</t>
+      </is>
+    </oc>
+    <nc r="E93" t="inlineStr">
+      <is>
+        <t>Thursday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="187" sId="6">
+    <oc r="A94" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A94" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="188" sId="6">
+    <oc r="A95" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A95" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="189" sId="6">
+    <oc r="C95">
+      <v>564</v>
+    </oc>
+    <nc r="C95">
+      <v>16</v>
+    </nc>
+  </rcc>
+  <rcc rId="190" sId="6">
+    <oc r="A96" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A96" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="191" sId="6">
+    <oc r="C97">
+      <v>14</v>
+    </oc>
+    <nc r="C97" t="inlineStr">
+      <is>
+        <t>To be determined</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="6" sqref="D97" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" sqref="D97">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1" sId="6">
+    <nc r="C97">
+      <v>14</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog1111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="192" sId="6">
+    <oc r="A2" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="193" sId="6" numFmtId="19">
+    <oc r="B2">
+      <v>41302</v>
+    </oc>
+    <nc r="B2">
+      <v>41303</v>
+    </nc>
+  </rcc>
+  <rcc rId="194" sId="6">
+    <oc r="D2">
+      <v>41302</v>
+    </oc>
+    <nc r="D2">
+      <v>41303</v>
+    </nc>
+  </rcc>
+  <rcc rId="195" sId="6">
+    <oc r="E2" t="inlineStr">
+      <is>
+        <t>Monday</t>
+      </is>
+    </oc>
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>Tuesday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="196" sId="6">
+    <oc r="A3" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="197" sId="6">
+    <oc r="A4" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="198" sId="6">
+    <oc r="A5" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A5" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="199" sId="6" numFmtId="19">
+    <oc r="B5">
+      <v>41303</v>
+    </oc>
+    <nc r="B5">
+      <v>41304</v>
+    </nc>
+  </rcc>
+  <rcc rId="200" sId="6">
+    <oc r="D5">
+      <v>41303</v>
+    </oc>
+    <nc r="D5">
+      <v>41304</v>
+    </nc>
+  </rcc>
+  <rcc rId="201" sId="6">
+    <oc r="E5" t="inlineStr">
+      <is>
+        <t>Tuesday</t>
+      </is>
+    </oc>
+    <nc r="E5" t="inlineStr">
+      <is>
+        <t>Wednesday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="202" sId="6">
+    <oc r="A6" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A6" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="203" sId="6">
+    <oc r="A7" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A7" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="204" sId="6">
+    <oc r="A8" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A8" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="205" sId="6" numFmtId="19">
+    <oc r="B8">
+      <v>41304</v>
+    </oc>
+    <nc r="B8">
+      <v>41305</v>
+    </nc>
+  </rcc>
+  <rcc rId="206" sId="6">
+    <oc r="D8">
+      <v>41304</v>
+    </oc>
+    <nc r="D8">
+      <v>41305</v>
+    </nc>
+  </rcc>
+  <rcc rId="207" sId="6">
+    <oc r="E8" t="inlineStr">
+      <is>
+        <t>Wednesday</t>
+      </is>
+    </oc>
+    <nc r="E8" t="inlineStr">
+      <is>
+        <t>Thursday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="208" sId="6">
+    <oc r="A9" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A9" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="209" sId="6">
+    <oc r="A10" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A10" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="210" sId="6">
+    <oc r="A11" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A11" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="211" sId="6" numFmtId="19">
+    <oc r="B11">
+      <v>41305</v>
+    </oc>
+    <nc r="B11">
+      <v>41306</v>
+    </nc>
+  </rcc>
+  <rcc rId="212" sId="6">
+    <oc r="D11">
+      <v>41305</v>
+    </oc>
+    <nc r="D11">
+      <v>41306</v>
+    </nc>
+  </rcc>
+  <rcc rId="213" sId="6">
+    <oc r="E11" t="inlineStr">
+      <is>
+        <t>Thursday</t>
+      </is>
+    </oc>
+    <nc r="E11" t="inlineStr">
+      <is>
+        <t>Friday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="214" sId="6">
+    <oc r="A12" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A12" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="215" sId="6">
+    <oc r="A13" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A13" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="216" sId="6">
+    <oc r="A14" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A14" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="217" sId="6" numFmtId="19">
+    <oc r="B14">
+      <v>41306</v>
+    </oc>
+    <nc r="B14">
+      <v>41307</v>
+    </nc>
+  </rcc>
+  <rcc rId="218" sId="6">
+    <oc r="D14">
+      <v>41306</v>
+    </oc>
+    <nc r="D14">
+      <v>41307</v>
+    </nc>
+  </rcc>
+  <rcc rId="219" sId="6">
+    <oc r="E14" t="inlineStr">
+      <is>
+        <t>Friday</t>
+      </is>
+    </oc>
+    <nc r="E14" t="inlineStr">
+      <is>
+        <t>Saturday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="220" sId="6">
+    <oc r="A15" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A15" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="221" sId="6">
+    <oc r="A16" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A16" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="222" sId="6">
+    <oc r="A17" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A17" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="223" sId="6" numFmtId="19">
+    <oc r="B17">
+      <v>41307</v>
+    </oc>
+    <nc r="B17">
+      <v>41308</v>
+    </nc>
+  </rcc>
+  <rcc rId="224" sId="6">
+    <oc r="D17">
+      <v>41307</v>
+    </oc>
+    <nc r="D17">
+      <v>41308</v>
+    </nc>
+  </rcc>
+  <rcc rId="225" sId="6">
+    <oc r="E17" t="inlineStr">
+      <is>
+        <t>Saturday</t>
+      </is>
+    </oc>
+    <nc r="E17" t="inlineStr">
+      <is>
+        <t>Sunday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="226" sId="6">
+    <oc r="A18" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A18" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="227" sId="6">
+    <oc r="A19" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A19" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="228" sId="6">
+    <oc r="A20" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A20" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="229" sId="6" numFmtId="19">
+    <oc r="B20">
+      <v>41308</v>
+    </oc>
+    <nc r="B20">
+      <v>41309</v>
+    </nc>
+  </rcc>
+  <rcc rId="230" sId="6">
+    <oc r="D20">
+      <v>41308</v>
+    </oc>
+    <nc r="D20">
+      <v>41309</v>
+    </nc>
+  </rcc>
+  <rcc rId="231" sId="6">
+    <oc r="E20" t="inlineStr">
+      <is>
+        <t>Sunday</t>
+      </is>
+    </oc>
+    <nc r="E20" t="inlineStr">
+      <is>
+        <t>Monday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="232" sId="6">
+    <oc r="A21" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A21" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="233" sId="6">
+    <oc r="A22" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A22" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="234" sId="6">
+    <oc r="A23" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A23" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="235" sId="6" numFmtId="19">
+    <oc r="B23">
+      <v>41309</v>
+    </oc>
+    <nc r="B23">
+      <v>41310</v>
+    </nc>
+  </rcc>
+  <rcc rId="236" sId="6">
+    <oc r="D23">
+      <v>41309</v>
+    </oc>
+    <nc r="D23">
+      <v>41310</v>
+    </nc>
+  </rcc>
+  <rcc rId="237" sId="6">
+    <oc r="E23" t="inlineStr">
+      <is>
+        <t>Monday</t>
+      </is>
+    </oc>
+    <nc r="E23" t="inlineStr">
+      <is>
+        <t>Tuesday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="238" sId="6">
+    <oc r="A24" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A24" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="239" sId="6">
+    <oc r="A25" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A25" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="240" sId="6">
+    <oc r="A26" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A26" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="241" sId="6" numFmtId="19">
+    <oc r="B26">
+      <v>41310</v>
+    </oc>
+    <nc r="B26">
+      <v>41311</v>
+    </nc>
+  </rcc>
+  <rcc rId="242" sId="6">
+    <oc r="D26">
+      <v>41310</v>
+    </oc>
+    <nc r="D26">
+      <v>41311</v>
+    </nc>
+  </rcc>
+  <rcc rId="243" sId="6">
+    <oc r="E26" t="inlineStr">
+      <is>
+        <t>Tuesday</t>
+      </is>
+    </oc>
+    <nc r="E26" t="inlineStr">
+      <is>
+        <t>Wednesday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="244" sId="6">
+    <oc r="A27" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A27" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="245" sId="6">
+    <oc r="A28" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A28" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="246" sId="6">
+    <oc r="A29" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A29" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="247" sId="6" numFmtId="19">
+    <oc r="B29">
+      <v>41311</v>
+    </oc>
+    <nc r="B29">
+      <v>41312</v>
+    </nc>
+  </rcc>
+  <rcc rId="248" sId="6">
+    <oc r="D29">
+      <v>41311</v>
+    </oc>
+    <nc r="D29">
+      <v>41312</v>
+    </nc>
+  </rcc>
+  <rcc rId="249" sId="6">
+    <oc r="E29" t="inlineStr">
+      <is>
+        <t>Wednesday</t>
+      </is>
+    </oc>
+    <nc r="E29" t="inlineStr">
+      <is>
+        <t>Thursday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="250" sId="6">
+    <oc r="A30" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A30" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="251" sId="6">
+    <oc r="A31" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A31" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="252" sId="6">
+    <oc r="A32" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A32" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="253" sId="6" numFmtId="19">
+    <oc r="B32">
+      <v>41312</v>
+    </oc>
+    <nc r="B32">
+      <v>41313</v>
+    </nc>
+  </rcc>
+  <rcc rId="254" sId="6">
+    <oc r="D32">
+      <v>41312</v>
+    </oc>
+    <nc r="D32">
+      <v>41313</v>
+    </nc>
+  </rcc>
+  <rcc rId="255" sId="6">
+    <oc r="E32" t="inlineStr">
+      <is>
+        <t>Thursday</t>
+      </is>
+    </oc>
+    <nc r="E32" t="inlineStr">
+      <is>
+        <t>Friday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="256" sId="6">
+    <oc r="A33" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A33" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="257" sId="6">
+    <oc r="A34" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A34" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="258" sId="6">
+    <oc r="A35" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A35" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="259" sId="6" numFmtId="19">
+    <oc r="B35">
+      <v>41313</v>
+    </oc>
+    <nc r="B35">
+      <v>41314</v>
+    </nc>
+  </rcc>
+  <rcc rId="260" sId="6">
+    <oc r="D35">
+      <v>41313</v>
+    </oc>
+    <nc r="D35">
+      <v>41314</v>
+    </nc>
+  </rcc>
+  <rcc rId="261" sId="6">
+    <oc r="E35" t="inlineStr">
+      <is>
+        <t>Friday</t>
+      </is>
+    </oc>
+    <nc r="E35" t="inlineStr">
+      <is>
+        <t>Saturday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="262" sId="6">
+    <oc r="A36" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A36" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="263" sId="6">
+    <oc r="A37" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A37" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="264" sId="6">
+    <oc r="A38" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A38" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="265" sId="6" numFmtId="19">
+    <oc r="B38">
+      <v>41314</v>
+    </oc>
+    <nc r="B38">
+      <v>41315</v>
+    </nc>
+  </rcc>
+  <rcc rId="266" sId="6">
+    <oc r="D38">
+      <v>41314</v>
+    </oc>
+    <nc r="D38">
+      <v>41315</v>
+    </nc>
+  </rcc>
+  <rcc rId="267" sId="6">
+    <oc r="E38" t="inlineStr">
+      <is>
+        <t>Saturday</t>
+      </is>
+    </oc>
+    <nc r="E38" t="inlineStr">
+      <is>
+        <t>Sunday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="268" sId="6">
+    <oc r="A39" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A39" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="269" sId="6">
+    <oc r="A40" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A40" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="270" sId="6">
+    <oc r="A41" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A41" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="271" sId="6" numFmtId="19">
+    <oc r="B41">
+      <v>41315</v>
+    </oc>
+    <nc r="B41">
+      <v>41316</v>
+    </nc>
+  </rcc>
+  <rcc rId="272" sId="6">
+    <oc r="D41">
+      <v>41315</v>
+    </oc>
+    <nc r="D41">
+      <v>41316</v>
+    </nc>
+  </rcc>
+  <rcc rId="273" sId="6">
+    <oc r="E41" t="inlineStr">
+      <is>
+        <t>Sunday</t>
+      </is>
+    </oc>
+    <nc r="E41" t="inlineStr">
+      <is>
+        <t>Monday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="274" sId="6">
+    <oc r="A42" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A42" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="275" sId="6">
+    <oc r="A43" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A43" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="276" sId="6">
+    <oc r="A44" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A44" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="277" sId="6" numFmtId="19">
+    <oc r="B44">
+      <v>41316</v>
+    </oc>
+    <nc r="B44">
+      <v>41317</v>
+    </nc>
+  </rcc>
+  <rcc rId="278" sId="6">
+    <oc r="D44">
+      <v>41316</v>
+    </oc>
+    <nc r="D44">
+      <v>41317</v>
+    </nc>
+  </rcc>
+  <rcc rId="279" sId="6">
+    <oc r="E44" t="inlineStr">
+      <is>
+        <t>Monday</t>
+      </is>
+    </oc>
+    <nc r="E44" t="inlineStr">
+      <is>
+        <t>Tuesday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="280" sId="6">
+    <oc r="A45" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A45" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="281" sId="6">
+    <oc r="A46" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A46" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="282" sId="6">
+    <oc r="A47" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A47" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="283" sId="6" numFmtId="19">
+    <oc r="B47">
+      <v>41317</v>
+    </oc>
+    <nc r="B47">
+      <v>41318</v>
+    </nc>
+  </rcc>
+  <rcc rId="284" sId="6">
+    <oc r="D47">
+      <v>41317</v>
+    </oc>
+    <nc r="D47">
+      <v>41318</v>
+    </nc>
+  </rcc>
+  <rcc rId="285" sId="6">
+    <oc r="E47" t="inlineStr">
+      <is>
+        <t>Tuesday</t>
+      </is>
+    </oc>
+    <nc r="E47" t="inlineStr">
+      <is>
+        <t>Wednesday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="286" sId="6">
+    <oc r="A48" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A48" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="287" sId="6">
+    <oc r="A49" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A49" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="288" sId="6">
+    <oc r="A50" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A50" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="289" sId="6" numFmtId="19">
+    <oc r="B50">
+      <v>41318</v>
+    </oc>
+    <nc r="B50">
+      <v>41319</v>
+    </nc>
+  </rcc>
+  <rcc rId="290" sId="6">
+    <oc r="D50">
+      <v>41318</v>
+    </oc>
+    <nc r="D50">
+      <v>41319</v>
+    </nc>
+  </rcc>
+  <rcc rId="291" sId="6">
+    <oc r="E50" t="inlineStr">
+      <is>
+        <t>Wednesday</t>
+      </is>
+    </oc>
+    <nc r="E50" t="inlineStr">
+      <is>
+        <t>Thursday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="292" sId="6">
+    <oc r="A51" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A51" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="293" sId="6">
+    <oc r="A52" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A52" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="294" sId="6">
+    <oc r="A53" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A53" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="295" sId="6" numFmtId="19">
+    <oc r="B53">
+      <v>41319</v>
+    </oc>
+    <nc r="B53">
+      <v>41320</v>
+    </nc>
+  </rcc>
+  <rcc rId="296" sId="6">
+    <oc r="D53">
+      <v>41319</v>
+    </oc>
+    <nc r="D53">
+      <v>41320</v>
+    </nc>
+  </rcc>
+  <rcc rId="297" sId="6">
+    <oc r="E53" t="inlineStr">
+      <is>
+        <t>Thursday</t>
+      </is>
+    </oc>
+    <nc r="E53" t="inlineStr">
+      <is>
+        <t>Friday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="298" sId="6">
+    <oc r="A54" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A54" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="299" sId="6">
+    <oc r="A55" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A55" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="300" sId="6">
+    <oc r="A56" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A56" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="301" sId="6" numFmtId="19">
+    <oc r="B56">
+      <v>41320</v>
+    </oc>
+    <nc r="B56">
+      <v>41321</v>
+    </nc>
+  </rcc>
+  <rcc rId="302" sId="6">
+    <oc r="D56">
+      <v>41320</v>
+    </oc>
+    <nc r="D56">
+      <v>41321</v>
+    </nc>
+  </rcc>
+  <rcc rId="303" sId="6">
+    <oc r="E56" t="inlineStr">
+      <is>
+        <t>Friday</t>
+      </is>
+    </oc>
+    <nc r="E56" t="inlineStr">
+      <is>
+        <t>Saturday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="304" sId="6">
+    <oc r="A57" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A57" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="305" sId="6">
+    <oc r="A58" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A58" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="306" sId="6">
+    <oc r="A59" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A59" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="307" sId="6" numFmtId="19">
+    <oc r="B59">
+      <v>41321</v>
+    </oc>
+    <nc r="B59">
+      <v>41322</v>
+    </nc>
+  </rcc>
+  <rcc rId="308" sId="6">
+    <oc r="D59">
+      <v>41321</v>
+    </oc>
+    <nc r="D59">
+      <v>41322</v>
+    </nc>
+  </rcc>
+  <rcc rId="309" sId="6">
+    <oc r="E59" t="inlineStr">
+      <is>
+        <t>Saturday</t>
+      </is>
+    </oc>
+    <nc r="E59" t="inlineStr">
+      <is>
+        <t>Sunday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="310" sId="6">
+    <oc r="A60" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A60" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="311" sId="6">
+    <oc r="A61" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A61" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="312" sId="6">
+    <oc r="A62" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A62" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="313" sId="6" numFmtId="19">
+    <oc r="B62">
+      <v>41322</v>
+    </oc>
+    <nc r="B62">
+      <v>41323</v>
+    </nc>
+  </rcc>
+  <rcc rId="314" sId="6">
+    <oc r="D62">
+      <v>41322</v>
+    </oc>
+    <nc r="D62">
+      <v>41323</v>
+    </nc>
+  </rcc>
+  <rcc rId="315" sId="6">
+    <oc r="E62" t="inlineStr">
+      <is>
+        <t>Sunday</t>
+      </is>
+    </oc>
+    <nc r="E62" t="inlineStr">
+      <is>
+        <t>Monday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="316" sId="6">
+    <oc r="A63" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A63" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="317" sId="6">
+    <oc r="A64" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A64" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="318" sId="6">
+    <oc r="A65" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A65" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="319" sId="6" numFmtId="19">
+    <oc r="B65">
+      <v>41323</v>
+    </oc>
+    <nc r="B65">
+      <v>41324</v>
+    </nc>
+  </rcc>
+  <rcc rId="320" sId="6">
+    <oc r="D65">
+      <v>41323</v>
+    </oc>
+    <nc r="D65">
+      <v>41324</v>
+    </nc>
+  </rcc>
+  <rcc rId="321" sId="6">
+    <oc r="E65" t="inlineStr">
+      <is>
+        <t>Monday</t>
+      </is>
+    </oc>
+    <nc r="E65" t="inlineStr">
+      <is>
+        <t>Tuesday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="322" sId="6">
+    <oc r="A66" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A66" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="323" sId="6">
+    <oc r="A67" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A67" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="324" sId="6">
+    <oc r="A68" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A68" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="325" sId="6" numFmtId="19">
+    <oc r="B68">
+      <v>41324</v>
+    </oc>
+    <nc r="B68">
+      <v>41325</v>
+    </nc>
+  </rcc>
+  <rcc rId="326" sId="6">
+    <oc r="D68">
+      <v>41324</v>
+    </oc>
+    <nc r="D68">
+      <v>41325</v>
+    </nc>
+  </rcc>
+  <rcc rId="327" sId="6">
+    <oc r="E68" t="inlineStr">
+      <is>
+        <t>Tuesday</t>
+      </is>
+    </oc>
+    <nc r="E68" t="inlineStr">
+      <is>
+        <t>Wednesday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="328" sId="6">
+    <oc r="A69" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A69" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="329" sId="6">
+    <oc r="A70" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A70" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="330" sId="6">
+    <oc r="A71" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A71" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="331" sId="6" numFmtId="19">
+    <oc r="B71">
+      <v>41325</v>
+    </oc>
+    <nc r="B71">
+      <v>41326</v>
+    </nc>
+  </rcc>
+  <rcc rId="332" sId="6">
+    <oc r="D71">
+      <v>41325</v>
+    </oc>
+    <nc r="D71">
+      <v>41326</v>
+    </nc>
+  </rcc>
+  <rcc rId="333" sId="6">
+    <oc r="E71" t="inlineStr">
+      <is>
+        <t>Wednesday</t>
+      </is>
+    </oc>
+    <nc r="E71" t="inlineStr">
+      <is>
+        <t>Thursday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="334" sId="6">
+    <oc r="A72" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A72" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="335" sId="6">
+    <oc r="A73" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A73" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="336" sId="6">
+    <oc r="A74" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A74" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="337" sId="6" numFmtId="19">
+    <oc r="B74">
+      <v>41326</v>
+    </oc>
+    <nc r="B74">
+      <v>41327</v>
+    </nc>
+  </rcc>
+  <rcc rId="338" sId="6">
+    <oc r="D74">
+      <v>41326</v>
+    </oc>
+    <nc r="D74">
+      <v>41327</v>
+    </nc>
+  </rcc>
+  <rcc rId="339" sId="6">
+    <oc r="E74" t="inlineStr">
+      <is>
+        <t>Thursday</t>
+      </is>
+    </oc>
+    <nc r="E74" t="inlineStr">
+      <is>
+        <t>Friday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="340" sId="6">
+    <oc r="A75" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A75" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="341" sId="6">
+    <oc r="A76" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A76" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="342" sId="6">
+    <oc r="A77" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A77" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="343" sId="6" numFmtId="19">
+    <oc r="B77">
+      <v>41327</v>
+    </oc>
+    <nc r="B77">
+      <v>41328</v>
+    </nc>
+  </rcc>
+  <rcc rId="344" sId="6">
+    <oc r="D77">
+      <v>41327</v>
+    </oc>
+    <nc r="D77">
+      <v>41328</v>
+    </nc>
+  </rcc>
+  <rcc rId="345" sId="6">
+    <oc r="E77" t="inlineStr">
+      <is>
+        <t>Friday</t>
+      </is>
+    </oc>
+    <nc r="E77" t="inlineStr">
+      <is>
+        <t>Saturday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="346" sId="6">
+    <oc r="A78" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A78" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="347" sId="6">
+    <oc r="A79" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A79" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="348" sId="6">
+    <oc r="A80" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A80" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="349" sId="6" numFmtId="19">
+    <oc r="B80">
+      <v>41328</v>
+    </oc>
+    <nc r="B80">
+      <v>41329</v>
+    </nc>
+  </rcc>
+  <rcc rId="350" sId="6">
+    <oc r="D80">
+      <v>41328</v>
+    </oc>
+    <nc r="D80">
+      <v>41329</v>
+    </nc>
+  </rcc>
+  <rcc rId="351" sId="6">
+    <oc r="E80" t="inlineStr">
+      <is>
+        <t>Saturday</t>
+      </is>
+    </oc>
+    <nc r="E80" t="inlineStr">
+      <is>
+        <t>Sunday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="352" sId="6">
+    <oc r="A81" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A81" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="353" sId="6">
+    <oc r="A82" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A82" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="354" sId="6">
+    <oc r="A83" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A83" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="355" sId="6" numFmtId="19">
+    <oc r="B83">
+      <v>41329</v>
+    </oc>
+    <nc r="B83">
+      <v>41330</v>
+    </nc>
+  </rcc>
+  <rcc rId="356" sId="6">
+    <oc r="D83">
+      <v>41329</v>
+    </oc>
+    <nc r="D83">
+      <v>41330</v>
+    </nc>
+  </rcc>
+  <rcc rId="357" sId="6">
+    <oc r="E83" t="inlineStr">
+      <is>
+        <t>Sunday</t>
+      </is>
+    </oc>
+    <nc r="E83" t="inlineStr">
+      <is>
+        <t>Monday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="358" sId="6">
+    <oc r="A84" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A84" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="359" sId="6">
+    <oc r="A85" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A85" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="360" sId="6">
+    <oc r="A86" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A86" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="361" sId="6" numFmtId="19">
+    <oc r="B86">
+      <v>41330</v>
+    </oc>
+    <nc r="B86">
+      <v>41331</v>
+    </nc>
+  </rcc>
+  <rcc rId="362" sId="6">
+    <oc r="D86">
+      <v>41330</v>
+    </oc>
+    <nc r="D86">
+      <v>41331</v>
+    </nc>
+  </rcc>
+  <rcc rId="363" sId="6">
+    <oc r="E86" t="inlineStr">
+      <is>
+        <t>Monday</t>
+      </is>
+    </oc>
+    <nc r="E86" t="inlineStr">
+      <is>
+        <t>Tuesday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="364" sId="6">
+    <oc r="A87" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A87" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="365" sId="6">
+    <oc r="A88" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A88" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="366" sId="6">
+    <oc r="A89" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A89" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="367" sId="6" numFmtId="19">
+    <oc r="B89">
+      <v>41331</v>
+    </oc>
+    <nc r="B89">
+      <v>41332</v>
+    </nc>
+  </rcc>
+  <rcc rId="368" sId="6">
+    <oc r="D89">
+      <v>41331</v>
+    </oc>
+    <nc r="D89">
+      <v>41332</v>
+    </nc>
+  </rcc>
+  <rcc rId="369" sId="6">
+    <oc r="E89" t="inlineStr">
+      <is>
+        <t>Tuesday</t>
+      </is>
+    </oc>
+    <nc r="E89" t="inlineStr">
+      <is>
+        <t>Wednesday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="370" sId="6">
+    <oc r="A90" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A90" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="371" sId="6">
+    <oc r="A91" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A91" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="372" sId="6">
+    <oc r="A92" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A92" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="373" sId="6" numFmtId="19">
+    <oc r="B92">
+      <v>41332</v>
+    </oc>
+    <nc r="B92">
+      <v>41333</v>
+    </nc>
+  </rcc>
+  <rcc rId="374" sId="6">
+    <oc r="D92">
+      <v>41332</v>
+    </oc>
+    <nc r="D92">
+      <v>41333</v>
+    </nc>
+  </rcc>
+  <rcc rId="375" sId="6">
+    <oc r="E92" t="inlineStr">
+      <is>
+        <t>Wednesday</t>
+      </is>
+    </oc>
+    <nc r="E92" t="inlineStr">
+      <is>
+        <t>Thursday</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="376" sId="6">
+    <oc r="A93" t="inlineStr">
+      <is>
+        <t>breakfast</t>
+      </is>
+    </oc>
+    <nc r="A93" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="377" sId="6">
+    <oc r="A94" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A94" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="378" sId="6">
+    <oc r="C94">
+      <v>564</v>
+    </oc>
+    <nc r="C94">
+      <v>16</v>
+    </nc>
+  </rcc>
+  <rcc rId="379" sId="6">
+    <oc r="A95" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </oc>
+    <nc r="A95" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="380" sId="6">
+    <oc r="A97" t="inlineStr">
+      <is>
+        <t>lunch</t>
+      </is>
+    </oc>
+    <nc r="A97" t="inlineStr">
+      <is>
+        <t>dinner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="6" sqref="D97" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="6" sqref="D97">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
+  <userInfo guid="{CDC0E8B4-BCE5-4D3F-8424-F8C784956298}" name="Network Student" id="-248520132" dateTime="2013-02-28T23:23:33"/>
+  <userInfo guid="{75126F2E-4F5C-48EE-88DD-C6E32F8F7E3A}" name="Network Student" id="-248570193" dateTime="2013-02-28T23:27:41"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -799,7 +5178,7 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -915,10 +5294,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -926,29 +5305,63 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>38751.524259259262</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>38751</v>
+      </c>
+      <c r="E2" s="5">
+        <f>MATCH("*",A2:A3,-1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>41333</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="4">
+        <v>41333</v>
+      </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -958,10 +5371,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2622,7 +7035,16 @@
         <v>39</v>
       </c>
     </row>
+    <row r="98" spans="1:5">
+      <c r="B98" s="2"/>
+    </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{292070CA-CCC0-4443-AE30-5245732CEFEF}">
+      <selection activeCell="F5" sqref="F5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>